--- a/1.Budgeting analysis.xlsx
+++ b/1.Budgeting analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliediwa/Desktop/UGENT/Github finance/Financial-Planning-and-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B5BEBF-01A2-924C-903A-DF2B0DE6DD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4491C293-ADEF-F343-9FFB-A27569975D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{D714E13E-F220-A449-A120-4F700FCC0D01}"/>
+    <workbookView xWindow="28800" yWindow="-7600" windowWidth="23340" windowHeight="28800" activeTab="4" xr2:uid="{D714E13E-F220-A449-A120-4F700FCC0D01}"/>
   </bookViews>
   <sheets>
     <sheet name="Assumptions" sheetId="7" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="216">
   <si>
     <t>Unit settings</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>Cost of DL (in 1 euro)</t>
-  </si>
-  <si>
-    <t>Number of workers</t>
   </si>
   <si>
     <t>DL hours need for B</t>
@@ -782,6 +779,12 @@
     <t>Profit &amp; Loss budgeting
 Contribution P&amp;L</t>
   </si>
+  <si>
+    <t>It takes 1.02 minutes per unit of A and  0.30 minute per unit of B</t>
+  </si>
+  <si>
+    <t>Number of workers per machine</t>
+  </si>
 </sst>
 </file>
 
@@ -796,7 +799,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.0"/>
     <numFmt numFmtId="170" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
     <numFmt numFmtId="171" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="173" formatCode="0.0000_);\(0.0000\)"/>
+    <numFmt numFmtId="172" formatCode="0.0000_);\(0.0000\)"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1145,6 +1148,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1154,7 +1158,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1423,22 +1426,22 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10.867290731707318</c:v>
+                  <c:v>12.978146341463416</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.359240731707317</c:v>
+                  <c:v>12.616675609756099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.842788231707322</c:v>
+                  <c:v>13.254131341463422</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.446240911585368</c:v>
+                  <c:v>13.9144598597561</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.969902030335373</c:v>
+                  <c:v>14.607804803963422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.519746205022871</c:v>
+                  <c:v>15.335816995381103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1591,22 +1594,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.5470434146341461</c:v>
+                  <c:v>4.436187804878049</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7062979268292722</c:v>
+                  <c:v>5.4488630487804883</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9248078475609738</c:v>
+                  <c:v>5.513464737804874</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0768081423780522</c:v>
+                  <c:v>5.6085891942073189</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3646653299847529</c:v>
+                  <c:v>5.7267625563567037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6852080598986312</c:v>
+                  <c:v>5.8691372695403992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1763,22 +1766,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.74610826829268306</c:v>
+                  <c:v>1.5200886585365858</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72437501829268314</c:v>
+                  <c:v>1.5521011402439031</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74506010579268322</c:v>
+                  <c:v>1.6292192460365862</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80479464278963442</c:v>
+                  <c:v>1.7098082571189031</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82719570175838453</c:v>
+                  <c:v>1.7944267187553362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85071681367557206</c:v>
+                  <c:v>1.8832761034735905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2000,22 +2003,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.2391475853658527</c:v>
+                  <c:v>0.46516719512194982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.279655823170732</c:v>
+                  <c:v>0.45192970121951248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2853917899390246</c:v>
+                  <c:v>0.40123264969512107</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2601066769969513</c:v>
+                  <c:v>0.3550930626676827</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2805848303589942</c:v>
+                  <c:v>0.31335381336204282</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3087942084623094</c:v>
+                  <c:v>0.27623491866429095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2102,22 +2105,22 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.27279688557082571</c:v>
+                  <c:v>0.18484346907994886</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30580929590307465</c:v>
+                  <c:v>0.21622742700079337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2995051741835727</c:v>
+                  <c:v>0.20837239822281123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29071407348889061</c:v>
+                  <c:v>0.20187378261701755</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28673820371855935</c:v>
+                  <c:v>0.19631169254866285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28354886836724352</c:v>
+                  <c:v>0.19161167119922942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2192,22 +2195,22 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.28163149200681215</c:v>
+                  <c:v>0.10572246013467378</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27698870462470038</c:v>
+                  <c:v>9.7822727217425534E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2649812256312436</c:v>
+                  <c:v>8.2713395333362194E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24739880445886703</c:v>
+                  <c:v>6.971600165232264E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23944696551897582</c:v>
+                  <c:v>5.8591682459885601E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23306821508096662</c:v>
+                  <c:v>4.9191522257546985E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2639,22 +2642,22 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.35707795564991207</c:v>
+                  <c:v>0.52698510091888395</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43532575976858184</c:v>
+                  <c:v>0.61567889850908031</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44448869521601331</c:v>
+                  <c:v>0.6388881887367327</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45792989133836465</c:v>
+                  <c:v>0.65945494435927177</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46427947987694085</c:v>
+                  <c:v>0.67813925067301251</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46950165891996987</c:v>
+                  <c:v>0.69477325285097979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2753,22 +2756,22 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.8565879374037317</c:v>
+                  <c:v>4.215828108840979</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5482164967604963</c:v>
+                  <c:v>3.603928990377653</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6018525216038428</c:v>
+                  <c:v>3.7397865520060889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6805317105252078</c:v>
+                  <c:v>3.8601758117412723</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7176995690738091</c:v>
+                  <c:v>3.9695459937505122</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7482680398979524</c:v>
+                  <c:v>4.0669145454750399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2869,22 +2872,22 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.18559466344130673</c:v>
+                  <c:v>0.49440111313049756</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96125456370926332</c:v>
+                  <c:v>2.7218281885007705</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0048132873645235</c:v>
+                  <c:v>3.2190270432414052</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.076224507223432</c:v>
+                  <c:v>3.8191613131264512</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1119650476226643</c:v>
+                  <c:v>4.5442739521723281</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1423979727304914</c:v>
+                  <c:v>5.4126533231152685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2985,22 +2988,22 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.74236009429888283</c:v>
+                  <c:v>1.9775550124106773</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75480327346557152</c:v>
+                  <c:v>2.1372536516899454</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78900677006703646</c:v>
+                  <c:v>2.5276677389567102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84508080554800258</c:v>
+                  <c:v>2.998909518740978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87314525164505996</c:v>
+                  <c:v>3.5682877191118698</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89704201360568048</c:v>
+                  <c:v>4.2501628607688842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4649,8 +4652,8 @@
   </sheetPr>
   <dimension ref="B1:O63"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4666,7 +4669,7 @@
   <sheetData>
     <row r="1" spans="2:14" ht="20" x14ac:dyDescent="0.2">
       <c r="B1" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="20" x14ac:dyDescent="0.2">
@@ -4674,7 +4677,7 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -4686,14 +4689,14 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
     </row>
     <row r="8" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
@@ -4720,7 +4723,7 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="86" cm="1">
         <f t="array" ref="C9">3000000/unit</f>
@@ -4749,7 +4752,7 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C10" s="86" cm="1">
         <f t="array" ref="C10">1100000/unit</f>
@@ -4841,7 +4844,7 @@
       <c r="C15" s="16">
         <v>0.9</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="D15" s="92" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="11"/>
@@ -4856,7 +4859,7 @@
       <c r="C16" s="17">
         <v>0.05</v>
       </c>
-      <c r="D16" s="91"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -4869,7 +4872,7 @@
       <c r="C17" s="17">
         <v>0.05</v>
       </c>
-      <c r="D17" s="91"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -5181,23 +5184,29 @@
       <c r="B36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="5">
-        <v>144</v>
-      </c>
-      <c r="D36" s="5">
-        <v>144</v>
-      </c>
-      <c r="E36" s="5">
-        <v>144</v>
-      </c>
-      <c r="F36" s="5">
-        <v>150</v>
-      </c>
-      <c r="G36" s="5">
-        <v>150</v>
-      </c>
-      <c r="H36" s="5">
-        <v>150</v>
+      <c r="C36" s="71" cm="1">
+        <f t="array" ref="C36">C53*'Proj. Sales &amp; Prod'!C6*unit</f>
+        <v>51000.000000000007</v>
+      </c>
+      <c r="D36" s="71" cm="1">
+        <f t="array" ref="D36">D53*'Proj. Sales &amp; Prod'!D6*unit</f>
+        <v>53550.000000000007</v>
+      </c>
+      <c r="E36" s="71" cm="1">
+        <f t="array" ref="E36">E53*'Proj. Sales &amp; Prod'!E6*unit</f>
+        <v>56227.500000000015</v>
+      </c>
+      <c r="F36" s="71" cm="1">
+        <f t="array" ref="F36">F53*'Proj. Sales &amp; Prod'!F6*unit</f>
+        <v>59038.875000000015</v>
+      </c>
+      <c r="G36" s="71" cm="1">
+        <f t="array" ref="G36">G53*'Proj. Sales &amp; Prod'!G6*unit</f>
+        <v>61990.818750000013</v>
+      </c>
+      <c r="H36" s="71" cm="1">
+        <f t="array" ref="H36">H53*'Proj. Sales &amp; Prod'!H6*unit</f>
+        <v>65090.359687500029</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
@@ -5225,53 +5234,59 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="C38" s="5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D38" s="5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E38" s="5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F38" s="5">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G38" s="5">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H38" s="5">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="5">
-        <v>64</v>
-      </c>
-      <c r="D40" s="5">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5">
-        <v>64</v>
-      </c>
-      <c r="F40" s="5">
-        <v>64</v>
-      </c>
-      <c r="G40" s="5">
-        <v>64</v>
-      </c>
-      <c r="H40" s="5">
-        <v>64</v>
+        <v>23</v>
+      </c>
+      <c r="C40" s="71" cm="1">
+        <f t="array" ref="C40">'Proj. Sales &amp; Prod'!C7*C54*unit</f>
+        <v>5500.0000000000009</v>
+      </c>
+      <c r="D40" s="71" cm="1">
+        <f t="array" ref="D40">'Proj. Sales &amp; Prod'!D7*D54*unit</f>
+        <v>5775.0000000000018</v>
+      </c>
+      <c r="E40" s="71" cm="1">
+        <f t="array" ref="E40">'Proj. Sales &amp; Prod'!E7*E54*unit</f>
+        <v>6063.7500000000018</v>
+      </c>
+      <c r="F40" s="71" cm="1">
+        <f t="array" ref="F40">'Proj. Sales &amp; Prod'!F7*F54*unit</f>
+        <v>6366.9375000000018</v>
+      </c>
+      <c r="G40" s="71" cm="1">
+        <f t="array" ref="G40">'Proj. Sales &amp; Prod'!G7*G54*unit</f>
+        <v>6685.2843750000029</v>
+      </c>
+      <c r="H40" s="71" cm="1">
+        <f t="array" ref="H40">'Proj. Sales &amp; Prod'!H7*H54*unit</f>
+        <v>7019.5485937500025</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" s="5">
         <v>14</v>
@@ -5294,25 +5309,25 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="C42" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E42" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F42" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G42" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H42" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
@@ -5333,25 +5348,25 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C45" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D45" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E45" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F45" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G45" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H45" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
@@ -5359,7 +5374,7 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47" s="5" cm="1">
         <f t="array" ref="C47">40000/unit</f>
@@ -5388,7 +5403,7 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" s="5" cm="1">
         <f t="array" ref="C48">25000/unit</f>
@@ -5417,7 +5432,7 @@
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
@@ -5438,7 +5453,7 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52" s="8">
         <f>C35</f>
@@ -5467,60 +5482,63 @@
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C53" s="20">
-        <f>'Proj. Sales &amp; Prod'!C6/Assumptions!C36</f>
-        <v>2.0833333333333332E-2</v>
+        <f>1.02/60</f>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D53" s="20">
-        <f>'Proj. Sales &amp; Prod'!D6/Assumptions!D36</f>
-        <v>2.1875000000000002E-2</v>
+        <f t="shared" ref="D53:H53" si="2">1.02/60</f>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E53" s="20">
-        <f>'Proj. Sales &amp; Prod'!E6/Assumptions!E36</f>
-        <v>2.2968750000000003E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F53" s="20">
-        <f>'Proj. Sales &amp; Prod'!F6/Assumptions!F36</f>
-        <v>2.3152500000000003E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G53" s="20">
-        <f>'Proj. Sales &amp; Prod'!G6/Assumptions!G36</f>
-        <v>2.4310125000000005E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="H53" s="20">
-        <f>'Proj. Sales &amp; Prod'!H6/Assumptions!H36</f>
-        <v>2.5525631250000007E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J53" s="23" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C54" s="20">
-        <f>'Proj. Sales &amp; Prod'!C7/Assumptions!C40</f>
-        <v>1.7187500000000001E-2</v>
+        <f>0.3/60</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D54" s="20">
-        <f>'Proj. Sales &amp; Prod'!D7/Assumptions!D40</f>
-        <v>1.8046875000000004E-2</v>
+        <f t="shared" ref="D54:H54" si="3">0.3/60</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E54" s="20">
-        <f>'Proj. Sales &amp; Prod'!E7/Assumptions!E40</f>
-        <v>1.8949218750000003E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F54" s="20">
-        <f>'Proj. Sales &amp; Prod'!F7/Assumptions!F40</f>
-        <v>1.9896679687500005E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G54" s="20">
-        <f>'Proj. Sales &amp; Prod'!G7/Assumptions!G40</f>
-        <v>2.0891513671875007E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H54" s="20">
-        <f>'Proj. Sales &amp; Prod'!H7/Assumptions!H40</f>
-        <v>2.1936089355468757E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
@@ -5541,36 +5559,36 @@
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57" s="8">
         <f>C52</f>
         <v>1</v>
       </c>
       <c r="D57" s="8">
-        <f t="shared" ref="D57:H57" si="2">D52</f>
+        <f t="shared" ref="D57:H57" si="4">D52</f>
         <v>2</v>
       </c>
       <c r="E57" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="F57" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G57" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H57" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C59" s="38">
         <v>4</v>
@@ -5599,7 +5617,7 @@
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C60" s="38">
         <v>5</v>
@@ -5609,19 +5627,19 @@
         <v>5.25</v>
       </c>
       <c r="E60" s="38">
-        <f t="shared" ref="E60" si="3">D60*1.05</f>
+        <f t="shared" ref="E60" si="5">D60*1.05</f>
         <v>5.5125000000000002</v>
       </c>
       <c r="F60" s="38">
-        <f t="shared" ref="F60" si="4">E60*1.05</f>
+        <f t="shared" ref="F60" si="6">E60*1.05</f>
         <v>5.7881250000000009</v>
       </c>
       <c r="G60" s="38">
-        <f t="shared" ref="G60" si="5">F60*1.05</f>
+        <f t="shared" ref="G60" si="7">F60*1.05</f>
         <v>6.0775312500000007</v>
       </c>
       <c r="H60" s="38">
-        <f t="shared" ref="H60" si="6">G60*1.05</f>
+        <f t="shared" ref="H60" si="8">G60*1.05</f>
         <v>6.3814078125000009</v>
       </c>
       <c r="J60" s="38"/>
@@ -5633,7 +5651,7 @@
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C61" s="38">
         <v>1</v>
@@ -5704,19 +5722,19 @@
     </row>
     <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="81"/>
-      <c r="C6" s="92" t="str">
+      <c r="C6" s="93" t="str">
         <f>IF(actual=TRUE, "Revenues and Spending Variances", "Activty Variances")</f>
         <v>Activty Variances</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
     </row>
     <row r="7" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B7" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" s="89">
         <v>1</v>
@@ -5739,7 +5757,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C58-'Act. SGA &amp; PL &amp; BS '!C58</f>
@@ -5768,7 +5786,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C59-'Act. SGA &amp; PL &amp; BS '!C59</f>
@@ -5797,7 +5815,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C60-'Act. SGA &amp; PL &amp; BS '!C60</f>
@@ -5826,36 +5844,36 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C61-'Act. SGA &amp; PL &amp; BS '!C61</f>
-        <v>1.007200000000001</v>
+        <v>-1.852999999999998</v>
       </c>
       <c r="D11" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D61-'Act. SGA &amp; PL &amp; BS '!D61</f>
-        <v>-1.4699379499999985</v>
+        <v>-4.4207879500000011</v>
       </c>
       <c r="E11" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E61-'Act. SGA &amp; PL &amp; BS '!E61</f>
-        <v>-1.4959855716463384</v>
+        <v>-4.542018071646341</v>
       </c>
       <c r="F11" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F61-'Act. SGA &amp; PL &amp; BS '!F61</f>
-        <v>-1.2849286003554923</v>
+        <v>-4.5688867253554921</v>
       </c>
       <c r="G11" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G61-'Act. SGA &amp; PL &amp; BS '!G61</f>
-        <v>-1.212766673638038</v>
+        <v>-4.6016635048880374</v>
       </c>
       <c r="H11" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H61-'Act. SGA &amp; PL &amp; BS '!H61</f>
-        <v>-1.1310919648460889</v>
+        <v>-4.6301744376585923</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C62-'Act. SGA &amp; PL &amp; BS '!C62</f>
@@ -5884,7 +5902,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C63-'Act. SGA &amp; PL &amp; BS '!C63</f>
@@ -5913,65 +5931,65 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C64-'Act. SGA &amp; PL &amp; BS '!C64</f>
-        <v>-1.007200000000001</v>
+        <v>1.852999999999998</v>
       </c>
       <c r="D14" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D64-'Act. SGA &amp; PL &amp; BS '!D64</f>
-        <v>1.0199379499999992</v>
+        <v>3.9707879500000018</v>
       </c>
       <c r="E14" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E64-'Act. SGA &amp; PL &amp; BS '!E64</f>
-        <v>0.88548872164634318</v>
+        <v>3.9315212216463493</v>
       </c>
       <c r="F14" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F64-'Act. SGA &amp; PL &amp; BS '!F64</f>
-        <v>0.685573459855501</v>
+        <v>3.9695315848554991</v>
       </c>
       <c r="G14" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G64-'Act. SGA &amp; PL &amp; BS '!G64</f>
-        <v>0.70333532467303783</v>
+        <v>4.0922321559230426</v>
       </c>
       <c r="H14" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H64-'Act. SGA &amp; PL &amp; BS '!H64</f>
-        <v>0.74227734344963636</v>
+        <v>4.2413598162621469</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C65-'Act. SGA &amp; PL &amp; BS '!C65</f>
-        <v>-1.007200000000001</v>
+        <v>1.852999999999998</v>
       </c>
       <c r="D15" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D65-'Act. SGA &amp; PL &amp; BS '!D65</f>
-        <v>1.4699379499999985</v>
+        <v>4.4207879500000011</v>
       </c>
       <c r="E15" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E65-'Act. SGA &amp; PL &amp; BS '!E65</f>
-        <v>1.7479887216463439</v>
+        <v>4.7940212216463465</v>
       </c>
       <c r="F15" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F65-'Act. SGA &amp; PL &amp; BS '!F65</f>
-        <v>2.0736984598554997</v>
+        <v>5.3576565848555013</v>
       </c>
       <c r="G15" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G65-'Act. SGA &amp; PL &amp; BS '!G65</f>
-        <v>2.5808665746730419</v>
+        <v>5.9697634059230396</v>
       </c>
       <c r="H15" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H65-'Act. SGA &amp; PL &amp; BS '!H65</f>
-        <v>3.1236851559496372</v>
+        <v>6.6227676287621442</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C66-'Act. SGA &amp; PL &amp; BS '!C66</f>
@@ -6000,7 +6018,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C67-'Act. SGA &amp; PL &amp; BS '!C67</f>
@@ -6029,31 +6047,31 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C68-'Act. SGA &amp; PL &amp; BS '!C68</f>
-        <v>-1.007200000000001</v>
+        <v>1.852999999999998</v>
       </c>
       <c r="D18" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D68-'Act. SGA &amp; PL &amp; BS '!D68</f>
-        <v>1.0199379499999992</v>
+        <v>3.9707879500000023</v>
       </c>
       <c r="E18" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E68-'Act. SGA &amp; PL &amp; BS '!E68</f>
-        <v>0.88548872164634318</v>
+        <v>3.9315212216463498</v>
       </c>
       <c r="F18" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F68-'Act. SGA &amp; PL &amp; BS '!F68</f>
-        <v>0.685573459855501</v>
+        <v>3.9695315848554995</v>
       </c>
       <c r="G18" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G68-'Act. SGA &amp; PL &amp; BS '!G68</f>
-        <v>0.70333532467303783</v>
+        <v>4.0922321559230426</v>
       </c>
       <c r="H18" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H68-'Act. SGA &amp; PL &amp; BS '!H68</f>
-        <v>0.74227734344963636</v>
+        <v>4.2413598162621469</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
@@ -6067,7 +6085,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C70-'Act. SGA &amp; PL &amp; BS '!C70</f>
@@ -6096,31 +6114,31 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C71-'Act. SGA &amp; PL &amp; BS '!C71</f>
-        <v>-1.007200000000001</v>
+        <v>1.852999999999998</v>
       </c>
       <c r="D21" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D71-'Act. SGA &amp; PL &amp; BS '!D71</f>
-        <v>1.0199379499999992</v>
+        <v>3.9707879500000018</v>
       </c>
       <c r="E21" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E71-'Act. SGA &amp; PL &amp; BS '!E71</f>
-        <v>0.88548872164634496</v>
+        <v>3.9315212216463475</v>
       </c>
       <c r="F21" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F71-'Act. SGA &amp; PL &amp; BS '!F71</f>
-        <v>0.68557345985549745</v>
+        <v>3.9695315848554991</v>
       </c>
       <c r="G21" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G71-'Act. SGA &amp; PL &amp; BS '!G71</f>
-        <v>0.70333532467304138</v>
+        <v>4.092232155923039</v>
       </c>
       <c r="H21" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H71-'Act. SGA &amp; PL &amp; BS '!H71</f>
-        <v>0.74227734344963636</v>
+        <v>4.2413598162621433</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
@@ -6134,7 +6152,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C73-'Act. SGA &amp; PL &amp; BS '!C73</f>
@@ -6163,31 +6181,31 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C74-'Act. SGA &amp; PL &amp; BS '!C74</f>
-        <v>-1.007200000000001</v>
+        <v>1.852999999999998</v>
       </c>
       <c r="D24" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D74-'Act. SGA &amp; PL &amp; BS '!D74</f>
-        <v>1.0199379499999992</v>
+        <v>3.9707879500000018</v>
       </c>
       <c r="E24" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E74-'Act. SGA &amp; PL &amp; BS '!E74</f>
-        <v>0.88548872164634496</v>
+        <v>3.9315212216463475</v>
       </c>
       <c r="F24" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F74-'Act. SGA &amp; PL &amp; BS '!F74</f>
-        <v>0.68557345985549745</v>
+        <v>3.9695315848554991</v>
       </c>
       <c r="G24" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G74-'Act. SGA &amp; PL &amp; BS '!G74</f>
-        <v>0.70333532467304138</v>
+        <v>4.092232155923039</v>
       </c>
       <c r="H24" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H74-'Act. SGA &amp; PL &amp; BS '!H74</f>
-        <v>0.74227734344963636</v>
+        <v>4.2413598162621433</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
@@ -6219,60 +6237,60 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C76-'Act. SGA &amp; PL &amp; BS '!C76</f>
-        <v>0.25180000000000025</v>
+        <v>-0.4632499999999995</v>
       </c>
       <c r="D26" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D76-'Act. SGA &amp; PL &amp; BS '!D76</f>
-        <v>-0.2549844874999998</v>
+        <v>-0.99269698750000046</v>
       </c>
       <c r="E26" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E76-'Act. SGA &amp; PL &amp; BS '!E76</f>
-        <v>-0.22137218041158624</v>
+        <v>-0.98288030541158689</v>
       </c>
       <c r="F26" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F76-'Act. SGA &amp; PL &amp; BS '!F76</f>
-        <v>-0.17139336496387436</v>
+        <v>-0.99238289621387477</v>
       </c>
       <c r="G26" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G76-'Act. SGA &amp; PL &amp; BS '!G76</f>
-        <v>-0.17583383116826035</v>
+        <v>-1.0230580389807598</v>
       </c>
       <c r="H26" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H76-'Act. SGA &amp; PL &amp; BS '!H76</f>
-        <v>-0.18556933586240909</v>
+        <v>-1.0603399540655358</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!C77-'Act. SGA &amp; PL &amp; BS '!C77</f>
-        <v>-0.75539999999999985</v>
+        <v>1.3897499999999985</v>
       </c>
       <c r="D27" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!D77-'Act. SGA &amp; PL &amp; BS '!D77</f>
-        <v>0.7649534624999994</v>
+        <v>2.9780909625000014</v>
       </c>
       <c r="E27" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!E77-'Act. SGA &amp; PL &amp; BS '!E77</f>
-        <v>0.66411654123475916</v>
+        <v>2.9486409162347607</v>
       </c>
       <c r="F27" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!F77-'Act. SGA &amp; PL &amp; BS '!F77</f>
-        <v>0.51418009489162309</v>
+        <v>2.9771486886416243</v>
       </c>
       <c r="G27" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!G77-'Act. SGA &amp; PL &amp; BS '!G77</f>
-        <v>0.52750149350478104</v>
+        <v>3.0691741169422793</v>
       </c>
       <c r="H27" s="73">
         <f>'Proj. SGA &amp; PL &amp; BS'!H77-'Act. SGA &amp; PL &amp; BS '!H77</f>
-        <v>0.55670800758722727</v>
+        <v>3.1810198621966075</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
@@ -6395,17 +6413,17 @@
     <row r="3" spans="2:9" ht="13" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="61" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="62">
         <v>1</v>
@@ -6426,12 +6444,12 @@
         <v>6</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8" s="64" cm="1">
         <f t="array" ref="C8">3000000/unit</f>
@@ -6458,7 +6476,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="63" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" s="14" cm="1">
         <f t="array" ref="C9">3000000/unit</f>
@@ -6494,7 +6512,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="64"/>
       <c r="D11" s="65"/>
@@ -6514,7 +6532,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C13" s="62">
         <v>1</v>
@@ -6535,12 +6553,12 @@
         <v>6</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14" s="66">
         <v>2</v>
@@ -6566,7 +6584,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="5">
         <v>2</v>
@@ -6592,7 +6610,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C16" s="66">
         <v>0.7</v>
@@ -6618,7 +6636,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C17" s="5">
         <v>0.7</v>
@@ -6653,7 +6671,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C19" s="66"/>
       <c r="D19" s="66"/>
@@ -6673,7 +6691,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="68" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C21" s="62">
         <v>1</v>
@@ -6694,12 +6712,12 @@
         <v>6</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" s="70">
         <v>4</v>
@@ -6725,7 +6743,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C23" s="38">
         <v>4</v>
@@ -6751,7 +6769,7 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C24" s="70">
         <v>5</v>
@@ -6777,7 +6795,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C25" s="38">
         <v>5</v>
@@ -6817,7 +6835,7 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="71" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -6833,8 +6851,8 @@
   </sheetPr>
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6855,15 +6873,15 @@
       <c r="G2" s="88"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="90" t="str">
+      <c r="C4" s="91" t="str">
         <f>Assumptions!C7</f>
         <v>6-MONTHS PLAN</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
     </row>
     <row r="5" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="str">
@@ -6897,7 +6915,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="78">
         <f>Assumptions!C9</f>
@@ -6926,7 +6944,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="75">
         <f>Assumptions!C10</f>
@@ -6955,7 +6973,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="73">
         <f>SUM(C6:C7)</f>
@@ -6992,7 +7010,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="73">
         <f>C6*Assumptions!C12</f>
@@ -7021,7 +7039,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="72">
         <f>C7*Assumptions!C13</f>
@@ -7050,7 +7068,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="73">
         <f t="shared" ref="C12:H12" si="1">SUM(C10:C11)</f>
@@ -7093,18 +7111,18 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C15" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
+      <c r="C15" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="8">
         <f>C5</f>
@@ -7133,7 +7151,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="73"/>
       <c r="D17" s="73"/>
@@ -7144,7 +7162,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="73">
         <f>C12*Assumptions!$C$15</f>
@@ -7230,7 +7248,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="73">
         <f>SUM(C17:C20)</f>
@@ -7266,18 +7284,18 @@
       <c r="H23" s="1"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="C26" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
+      <c r="C26" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
     </row>
     <row r="27" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B27" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="8">
         <f>C16</f>
@@ -7336,7 +7354,7 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="72">
         <f>C28*Assumptions!C22</f>
@@ -7365,7 +7383,7 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="73">
         <f>SUM(C28:C29)</f>
@@ -7402,7 +7420,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="72"/>
       <c r="D32" s="72">
@@ -7428,7 +7446,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="73">
         <f>C30+C32</f>
@@ -7457,31 +7475,61 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="28">
         <f>C6/C8</f>
         <v>0.73170731707317083</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
+      <c r="D35" s="28">
+        <f t="shared" ref="D35:H35" si="9">D6/D8</f>
+        <v>0.73170731707317072</v>
+      </c>
+      <c r="E35" s="28">
+        <f t="shared" si="9"/>
+        <v>0.73170731707317072</v>
+      </c>
+      <c r="F35" s="28">
+        <f t="shared" si="9"/>
+        <v>0.73170731707317072</v>
+      </c>
+      <c r="G35" s="28">
+        <f t="shared" si="9"/>
+        <v>0.73170731707317072</v>
+      </c>
+      <c r="H35" s="28">
+        <f t="shared" si="9"/>
+        <v>0.73170731707317072</v>
+      </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="28">
         <f>C7/C8</f>
         <v>0.26829268292682934</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
+      <c r="D36" s="28">
+        <f t="shared" ref="D36:H36" si="10">D7/D8</f>
+        <v>0.26829268292682928</v>
+      </c>
+      <c r="E36" s="28">
+        <f t="shared" si="10"/>
+        <v>0.26829268292682928</v>
+      </c>
+      <c r="F36" s="28">
+        <f t="shared" si="10"/>
+        <v>0.26829268292682928</v>
+      </c>
+      <c r="G36" s="28">
+        <f t="shared" si="10"/>
+        <v>0.26829268292682928</v>
+      </c>
+      <c r="H36" s="28">
+        <f t="shared" si="10"/>
+        <v>0.26829268292682928</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -7501,8 +7549,8 @@
   </sheetPr>
   <dimension ref="B2:J79"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7523,18 +7571,18 @@
       <c r="G2" s="80"/>
     </row>
     <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C4" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
+      <c r="C4" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
     </row>
     <row r="5" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="8">
         <f>Assumptions!C8</f>
@@ -7563,7 +7611,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="74">
         <f>'Proj. Sales &amp; Prod'!$C$35*'Proj. Sales &amp; Prod'!C33</f>
@@ -7592,7 +7640,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="74">
         <f>C6*Assumptions!C23</f>
@@ -7630,7 +7678,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="74">
         <f>C7*Assumptions!C25</f>
@@ -7659,7 +7707,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="75"/>
       <c r="D10" s="75">
@@ -7685,7 +7733,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="74">
         <f>SUM(C7:C10)</f>
@@ -7723,7 +7771,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="75">
         <f>Assumptions!C26</f>
@@ -7752,7 +7800,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="74">
         <f>C13*C11</f>
@@ -7799,7 +7847,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="74">
         <f>'Proj. Sales &amp; Prod'!$C$36*'Proj. Sales &amp; Prod'!C33</f>
@@ -7828,7 +7876,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="74">
         <f>Assumptions!C24*C17</f>
@@ -7866,7 +7914,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="74">
         <f>C18*Assumptions!C25</f>
@@ -7895,7 +7943,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="75"/>
       <c r="D21" s="75">
@@ -7921,7 +7969,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="74">
         <f>SUM(C18:C21)</f>
@@ -7959,7 +8007,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="75">
         <f>Assumptions!C27</f>
@@ -7988,7 +8036,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="74">
         <f>C22*C24</f>
@@ -8035,7 +8083,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="74">
         <f>C25+C14</f>
@@ -8081,18 +8129,18 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C31" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
+      <c r="C31" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="8">
         <f>C5</f>
@@ -8121,7 +8169,7 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -8132,7 +8180,7 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="74">
         <f>C28*Assumptions!$C$29</f>
@@ -8219,7 +8267,7 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="74">
         <f>SUM(C33:C36)</f>
@@ -8267,18 +8315,18 @@
     </row>
     <row r="40" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
-      <c r="C40" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
+      <c r="C40" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
     </row>
     <row r="41" spans="2:10" ht="20" x14ac:dyDescent="0.2">
       <c r="B41" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="8">
         <f>C32</f>
@@ -8307,60 +8355,60 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="73">
         <f>Assumptions!C36*Assumptions!C37*Assumptions!C38+Assumptions!C40*Assumptions!C41*Assumptions!C42</f>
-        <v>44800</v>
+        <v>3724000.0000000005</v>
       </c>
       <c r="D42" s="73">
         <f>Assumptions!D36*Assumptions!D37*Assumptions!D38+Assumptions!D40*Assumptions!D41*Assumptions!D42</f>
-        <v>44800</v>
+        <v>3910200.0000000005</v>
       </c>
       <c r="E42" s="73">
         <f>Assumptions!E36*Assumptions!E37*Assumptions!E38+Assumptions!E40*Assumptions!E41*Assumptions!E42</f>
-        <v>44800</v>
+        <v>4105710.0000000009</v>
       </c>
       <c r="F42" s="73">
         <f>Assumptions!F36*Assumptions!F37*Assumptions!F38+Assumptions!F40*Assumptions!F41*Assumptions!F42</f>
-        <v>48580</v>
+        <v>4310995.5000000009</v>
       </c>
       <c r="G42" s="73">
         <f>Assumptions!G36*Assumptions!G37*Assumptions!G38+Assumptions!G40*Assumptions!G41*Assumptions!G42</f>
-        <v>48580</v>
+        <v>4526545.2750000013</v>
       </c>
       <c r="H42" s="73">
         <f>Assumptions!H36*Assumptions!H37*Assumptions!H38+Assumptions!H40*Assumptions!H41*Assumptions!H42</f>
-        <v>48580</v>
+        <v>4752872.5387500012</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="73" cm="1">
-        <f t="array" ref="C43">C42*(Assumptions!C38+Assumptions!C42)/unit</f>
-        <v>1.1200000000000001</v>
+        <f t="array" ref="C43">C42/unit</f>
+        <v>3.7240000000000006</v>
       </c>
       <c r="D43" s="73" cm="1">
-        <f t="array" ref="D43">D42*(Assumptions!D38+Assumptions!D42)/unit</f>
-        <v>1.1200000000000001</v>
+        <f t="array" ref="D43">D42/unit</f>
+        <v>3.9102000000000006</v>
       </c>
       <c r="E43" s="73" cm="1">
-        <f t="array" ref="E43">E42*(Assumptions!E38+Assumptions!E42)/unit</f>
-        <v>1.1200000000000001</v>
+        <f t="array" ref="E43">E42/unit</f>
+        <v>4.1057100000000011</v>
       </c>
       <c r="F43" s="73" cm="1">
-        <f t="array" ref="F43">F42*(Assumptions!F38+Assumptions!F42)/unit</f>
-        <v>1.26308</v>
+        <f t="array" ref="F43">F42/unit</f>
+        <v>4.3109955000000006</v>
       </c>
       <c r="G43" s="73" cm="1">
-        <f t="array" ref="G43">G42*(Assumptions!G38+Assumptions!G42)/unit</f>
-        <v>1.26308</v>
+        <f t="array" ref="G43">G42/unit</f>
+        <v>4.526545275000001</v>
       </c>
       <c r="H43" s="73" cm="1">
-        <f t="array" ref="H43">H42*(Assumptions!H38+Assumptions!H42)/unit</f>
-        <v>1.26308</v>
+        <f t="array" ref="H43">H42/unit</f>
+        <v>4.752872538750001</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
@@ -8371,7 +8419,7 @@
     </row>
     <row r="46" spans="2:10" ht="20" x14ac:dyDescent="0.2">
       <c r="B46" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="8">
         <f>C41</f>
@@ -8400,36 +8448,36 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" s="73" cm="1">
         <f t="array" ref="C47">(Assumptions!C36+Assumptions!C40)*Assumptions!C45/unit</f>
-        <v>1.6639999999999999E-3</v>
+        <v>0.28250000000000008</v>
       </c>
       <c r="D47" s="73" cm="1">
         <f t="array" ref="D47">(Assumptions!D36+Assumptions!D40)*Assumptions!D45/unit</f>
-        <v>1.6639999999999999E-3</v>
+        <v>0.29662500000000008</v>
       </c>
       <c r="E47" s="73" cm="1">
         <f t="array" ref="E47">(Assumptions!E36+Assumptions!E40)*Assumptions!E45/unit</f>
-        <v>1.6639999999999999E-3</v>
+        <v>0.31145625000000005</v>
       </c>
       <c r="F47" s="73" cm="1">
         <f t="array" ref="F47">(Assumptions!F36+Assumptions!F40)*Assumptions!F45/unit</f>
-        <v>1.712E-3</v>
+        <v>0.32702906250000008</v>
       </c>
       <c r="G47" s="73" cm="1">
         <f t="array" ref="G47">(Assumptions!G36+Assumptions!G40)*Assumptions!G45/unit</f>
-        <v>1.712E-3</v>
+        <v>0.3433805156250001</v>
       </c>
       <c r="H47" s="73" cm="1">
         <f t="array" ref="H47">(Assumptions!H36+Assumptions!H40)*Assumptions!H45/unit</f>
-        <v>1.712E-3</v>
+        <v>0.36054954140625017</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" s="72">
         <f>Assumptions!C47+Assumptions!C48</f>
@@ -8458,31 +8506,31 @@
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="73">
         <f>SUM(C47:C48)</f>
-        <v>6.6664000000000001E-2</v>
+        <v>0.34750000000000009</v>
       </c>
       <c r="D49" s="73">
         <f t="shared" ref="D49:H49" si="11">SUM(D47:D48)</f>
-        <v>6.6664000000000001E-2</v>
+        <v>0.36162500000000009</v>
       </c>
       <c r="E49" s="73">
         <f t="shared" si="11"/>
-        <v>6.6664000000000001E-2</v>
+        <v>0.37645625000000005</v>
       </c>
       <c r="F49" s="73">
         <f t="shared" si="11"/>
-        <v>6.6712000000000007E-2</v>
+        <v>0.39202906250000008</v>
       </c>
       <c r="G49" s="73">
         <f t="shared" si="11"/>
-        <v>6.6712000000000007E-2</v>
+        <v>0.40838051562500011</v>
       </c>
       <c r="H49" s="73">
         <f t="shared" si="11"/>
-        <v>6.6712000000000007E-2</v>
+        <v>0.42554954140625018</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
@@ -8495,7 +8543,7 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" s="72">
         <f>-Assumptions!C47</f>
@@ -8524,31 +8572,31 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C52" s="73">
         <f>SUM(C49:C51)</f>
-        <v>2.6664E-2</v>
+        <v>0.30750000000000011</v>
       </c>
       <c r="D52" s="73">
         <f t="shared" ref="D52:H52" si="12">SUM(D49:D51)</f>
-        <v>2.6664E-2</v>
+        <v>0.32162500000000011</v>
       </c>
       <c r="E52" s="73">
         <f t="shared" si="12"/>
-        <v>2.6664E-2</v>
+        <v>0.33645625000000007</v>
       </c>
       <c r="F52" s="73">
         <f t="shared" si="12"/>
-        <v>2.6712000000000007E-2</v>
+        <v>0.3520290625000001</v>
       </c>
       <c r="G52" s="73">
         <f t="shared" si="12"/>
-        <v>2.6712000000000007E-2</v>
+        <v>0.36838051562500013</v>
       </c>
       <c r="H52" s="73">
         <f t="shared" si="12"/>
-        <v>2.6712000000000007E-2</v>
+        <v>0.3855495414062502</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
@@ -8561,36 +8609,36 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="93">
+        <v>79</v>
+      </c>
+      <c r="C54" s="90">
         <f>C49/(Assumptions!C36+Assumptions!C40)</f>
-        <v>3.2049999999999998E-4</v>
-      </c>
-      <c r="D54" s="93">
+        <v>6.1504424778761068E-6</v>
+      </c>
+      <c r="D54" s="90">
         <f>D49/(Assumptions!D36+Assumptions!D40)</f>
-        <v>3.2049999999999998E-4</v>
-      </c>
-      <c r="E54" s="93">
+        <v>6.0956595027391495E-6</v>
+      </c>
+      <c r="E54" s="90">
         <f>E49/(Assumptions!E36+Assumptions!E40)</f>
-        <v>3.2049999999999998E-4</v>
-      </c>
-      <c r="F54" s="93">
+        <v>6.0434852407039509E-6</v>
+      </c>
+      <c r="F54" s="90">
         <f>F49/(Assumptions!F36+Assumptions!F40)</f>
-        <v>3.1173831775700939E-4</v>
-      </c>
-      <c r="G54" s="93">
+        <v>5.9937954673370961E-6</v>
+      </c>
+      <c r="G54" s="90">
         <f>G49/(Assumptions!G36+Assumptions!G40)</f>
-        <v>3.1173831775700939E-4</v>
-      </c>
-      <c r="H54" s="93">
+        <v>5.9464718736543767E-6</v>
+      </c>
+      <c r="H54" s="90">
         <f>H49/(Assumptions!H36+Assumptions!H40)</f>
-        <v>3.1173831775700939E-4</v>
+        <v>5.9014017844327403E-6</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B59" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59" s="8">
         <f>C46</f>
@@ -8619,12 +8667,12 @@
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" s="73">
         <f>C14/C11</f>
@@ -8653,89 +8701,89 @@
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62" s="73">
         <f>Assumptions!C37*Assumptions!C53</f>
-        <v>0.29166666666666663</v>
+        <v>0.23800000000000002</v>
       </c>
       <c r="D62" s="73">
         <f>Assumptions!D37*Assumptions!D53</f>
-        <v>0.30625000000000002</v>
+        <v>0.23800000000000002</v>
       </c>
       <c r="E62" s="73">
         <f>Assumptions!E37*Assumptions!E53</f>
-        <v>0.32156250000000003</v>
+        <v>0.23800000000000002</v>
       </c>
       <c r="F62" s="73">
         <f>Assumptions!F37*Assumptions!F53</f>
-        <v>0.32413500000000006</v>
+        <v>0.23800000000000002</v>
       </c>
       <c r="G62" s="73">
         <f>Assumptions!G37*Assumptions!G53</f>
-        <v>0.34034175000000005</v>
+        <v>0.23800000000000002</v>
       </c>
       <c r="H62" s="73">
         <f>Assumptions!H37*Assumptions!H53</f>
-        <v>0.35735883750000008</v>
+        <v>0.23800000000000002</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" s="72">
         <f>C54*'Proj. Sales &amp; Prod'!$C$35</f>
-        <v>2.3451219512195124E-4</v>
+        <v>4.5003237642995906E-6</v>
       </c>
       <c r="D63" s="72">
         <f>D54*'Proj. Sales &amp; Prod'!$C$35</f>
-        <v>2.3451219512195124E-4</v>
+        <v>4.4602386605408417E-6</v>
       </c>
       <c r="E63" s="72">
         <f>E54*'Proj. Sales &amp; Prod'!$C$35</f>
-        <v>2.3451219512195124E-4</v>
+        <v>4.4220623712467936E-6</v>
       </c>
       <c r="F63" s="72">
         <f>F54*'Proj. Sales &amp; Prod'!$C$35</f>
-        <v>2.2810120811488495E-4</v>
+        <v>4.3857040004905586E-6</v>
       </c>
       <c r="G63" s="72">
         <f>G54*'Proj. Sales &amp; Prod'!$C$35</f>
-        <v>2.2810120811488495E-4</v>
+        <v>4.3510769807227153E-6</v>
       </c>
       <c r="H63" s="72">
         <f>H54*'Proj. Sales &amp; Prod'!$C$35</f>
-        <v>2.2810120811488495E-4</v>
+        <v>4.3180988666581032E-6</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C64" s="73">
         <f>SUM(C61:C63)</f>
-        <v>2.2919011788617887</v>
+        <v>2.2380045003237643</v>
       </c>
       <c r="D64" s="73">
         <f t="shared" ref="D64:H64" si="15">SUM(D61:D63)</f>
-        <v>2.3064845121951221</v>
+        <v>2.2380044602386606</v>
       </c>
       <c r="E64" s="73">
         <f t="shared" si="15"/>
-        <v>2.3217970121951224</v>
+        <v>2.2380044220623714</v>
       </c>
       <c r="F64" s="73">
         <f t="shared" si="15"/>
-        <v>2.3243631012081147</v>
+        <v>2.2380043857040004</v>
       </c>
       <c r="G64" s="73">
         <f t="shared" si="15"/>
-        <v>2.3405698512081146</v>
+        <v>2.2380043510769809</v>
       </c>
       <c r="H64" s="73">
         <f t="shared" si="15"/>
-        <v>2.3575869387081148</v>
+        <v>2.2380043180988665</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
@@ -8748,7 +8796,7 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C66" s="72">
         <f>'Proj. Sales &amp; Prod'!C29*'Proj. Sales &amp; Prod'!$C$35</f>
@@ -8777,31 +8825,31 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C67" s="73">
         <f>C66*C64</f>
-        <v>6.8757035365853661E-2</v>
+        <v>6.7140135009712928E-2</v>
       </c>
       <c r="D67" s="73">
         <f t="shared" ref="D67:H67" si="16">D66*D64</f>
-        <v>7.2654262134146358E-2</v>
+        <v>7.0497140497517832E-2</v>
       </c>
       <c r="E67" s="73">
         <f t="shared" si="16"/>
-        <v>7.6793436178353686E-2</v>
+        <v>7.4021996259712952E-2</v>
       </c>
       <c r="F67" s="73">
-        <f t="shared" si="16"/>
-        <v>8.0722225051081356E-2</v>
+        <f>F66*F64</f>
+        <v>7.7723094810017837E-2</v>
       </c>
       <c r="G67" s="73">
         <f t="shared" si="16"/>
-        <v>8.5349318481151043E-2</v>
+        <v>8.1609248287837971E-2</v>
       </c>
       <c r="H67" s="73">
         <f t="shared" si="16"/>
-        <v>9.0268342255919565E-2</v>
+        <v>8.568970943954908E-2</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
@@ -8822,7 +8870,7 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C70" s="73"/>
       <c r="D70" s="73"/>
@@ -8833,7 +8881,7 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C71" s="73">
         <f>C25/C22</f>
@@ -8862,89 +8910,89 @@
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C72" s="73">
         <f>Assumptions!C41*Assumptions!C54</f>
-        <v>0.24062500000000003</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D72" s="73">
         <f>Assumptions!D41*Assumptions!D54</f>
-        <v>0.25265625000000003</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E72" s="73">
         <f>Assumptions!E41*Assumptions!E54</f>
-        <v>0.26528906250000006</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F72" s="73">
         <f>Assumptions!F41*Assumptions!F54</f>
-        <v>0.27855351562500008</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G72" s="73">
         <f>Assumptions!G41*Assumptions!G54</f>
-        <v>0.29248119140625012</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H72" s="73">
         <f>Assumptions!H41*Assumptions!H54</f>
-        <v>0.3071052509765626</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C73" s="72">
         <f>C54*'Proj. Sales &amp; Prod'!$C$36</f>
-        <v>8.5987804878048801E-5</v>
+        <v>1.650118713576517E-6</v>
       </c>
       <c r="D73" s="72">
         <f>D54*'Proj. Sales &amp; Prod'!$C$36</f>
-        <v>8.5987804878048801E-5</v>
+        <v>1.6354208421983089E-6</v>
       </c>
       <c r="E73" s="72">
         <f>E54*'Proj. Sales &amp; Prod'!$C$36</f>
-        <v>8.5987804878048801E-5</v>
+        <v>1.621422869457158E-6</v>
       </c>
       <c r="F73" s="72">
         <f>F54*'Proj. Sales &amp; Prod'!$C$36</f>
-        <v>8.3637109642124494E-5</v>
+        <v>1.6080914668465384E-6</v>
       </c>
       <c r="G73" s="72">
         <f>G54*'Proj. Sales &amp; Prod'!$C$36</f>
-        <v>8.3637109642124494E-5</v>
+        <v>1.5953948929316624E-6</v>
       </c>
       <c r="H73" s="72">
         <f>H54*'Proj. Sales &amp; Prod'!$C$36</f>
-        <v>8.3637109642124494E-5</v>
+        <v>1.5833029177746381E-6</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C74" s="73">
         <f>SUM(C71:C73)</f>
-        <v>0.94071098780487805</v>
+        <v>0.77000165011871358</v>
       </c>
       <c r="D74" s="73">
         <f t="shared" ref="D74:H74" si="18">SUM(D71:D73)</f>
-        <v>0.95274223780487799</v>
+        <v>0.77000163542084221</v>
       </c>
       <c r="E74" s="73">
         <f t="shared" si="18"/>
-        <v>0.96537505030487802</v>
+        <v>0.77000162142286943</v>
       </c>
       <c r="F74" s="73">
         <f t="shared" si="18"/>
-        <v>0.97863715273464214</v>
+        <v>0.77000160809146689</v>
       </c>
       <c r="G74" s="73">
         <f t="shared" si="18"/>
-        <v>0.99256482851589223</v>
+        <v>0.77000159539489299</v>
       </c>
       <c r="H74" s="73">
         <f t="shared" si="18"/>
-        <v>1.0071888880862048</v>
+        <v>0.77000158330291779</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.2">
@@ -8957,7 +9005,7 @@
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C76" s="72">
         <f>'Proj. Sales &amp; Prod'!C29*'Proj. Sales &amp; Prod'!$C$36</f>
@@ -8986,31 +9034,31 @@
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C77" s="73">
         <f>C76*C74</f>
-        <v>1.034782086585366E-2</v>
+        <v>8.4700181513058508E-3</v>
       </c>
       <c r="D77" s="73">
         <f t="shared" ref="D77:H77" si="19">D76*D74</f>
-        <v>1.1004172846646345E-2</v>
+        <v>8.8935188891107308E-3</v>
       </c>
       <c r="E77" s="73">
         <f t="shared" si="19"/>
-        <v>1.1707585922572412E-2</v>
+        <v>9.3381946638058533E-3</v>
       </c>
       <c r="F77" s="73">
         <f t="shared" si="19"/>
-        <v>1.2461843173278848E-2</v>
+        <v>9.805104227235734E-3</v>
       </c>
       <c r="G77" s="73">
         <f t="shared" si="19"/>
-        <v>1.3271156278503705E-2</v>
+        <v>1.0295359268837106E-2</v>
       </c>
       <c r="H77" s="73">
         <f t="shared" si="19"/>
-        <v>1.4140022686012298E-2</v>
+        <v>1.0810127062518545E-2</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.2">
@@ -9023,31 +9071,31 @@
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="73">
         <f>C67+C77</f>
-        <v>7.9104856231707321E-2</v>
+        <v>7.5610153161018781E-2</v>
       </c>
       <c r="D79" s="73">
         <f t="shared" ref="D79:H79" si="20">D67+D77</f>
-        <v>8.3658434980792701E-2</v>
+        <v>7.9390659386628565E-2</v>
       </c>
       <c r="E79" s="73">
         <f t="shared" si="20"/>
-        <v>8.8501022100926099E-2</v>
+        <v>8.3360190923518804E-2</v>
       </c>
       <c r="F79" s="73">
         <f t="shared" si="20"/>
-        <v>9.3184068224360206E-2</v>
+        <v>8.7528199037253576E-2</v>
       </c>
       <c r="G79" s="73">
         <f t="shared" si="20"/>
-        <v>9.8620474759654742E-2</v>
+        <v>9.190460755667508E-2</v>
       </c>
       <c r="H79" s="73">
         <f t="shared" si="20"/>
-        <v>0.10440836494193187</v>
+        <v>9.6499836502067629E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9069,7 +9117,7 @@
   <dimension ref="B1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -9099,7 +9147,7 @@
     </row>
     <row r="4" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="8">
         <f>Assumptions!C8</f>
@@ -9128,7 +9176,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="73">
         <f>'Proj. Sales &amp; Prod'!C8</f>
@@ -9157,7 +9205,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="76">
         <f>C6*Assumptions!C19</f>
@@ -9186,7 +9234,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="73">
         <f>C7</f>
@@ -9224,7 +9272,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="73"/>
       <c r="D10" s="73"/>
@@ -9235,7 +9283,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="73">
         <f>Assumptions!C59</f>
@@ -9264,7 +9312,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="73">
         <f>Assumptions!C60</f>
@@ -9293,7 +9341,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="73">
         <f>Assumptions!C61</f>
@@ -9322,7 +9370,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="73">
         <f>Assumptions!C48</f>
@@ -9351,7 +9399,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="76">
         <f>Assumptions!C47</f>
@@ -9380,7 +9428,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="73">
         <f>SUM(C11:C15)</f>
@@ -9418,7 +9466,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="73">
         <f>C16+C8</f>
@@ -9447,7 +9495,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="76">
         <f>-C15</f>
@@ -9476,7 +9524,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="73">
         <f>SUM(C18:C19)</f>
@@ -9505,7 +9553,7 @@
     </row>
     <row r="26" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B26" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="77">
         <f>C4</f>
@@ -9534,7 +9582,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" s="73"/>
       <c r="D27" s="73"/>
@@ -9554,7 +9602,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="73"/>
@@ -9565,7 +9613,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="73">
         <f>'Proj. Sales &amp; Prod'!C21</f>
@@ -9594,7 +9642,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="73">
         <f>C30</f>
@@ -9632,7 +9680,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" s="73"/>
       <c r="D33" s="73"/>
@@ -9643,7 +9691,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" s="73">
         <f>'Proj. RM &amp; DL &amp; FG'!C28</f>
@@ -9672,65 +9720,65 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" s="73">
         <f>'Proj. RM &amp; DL &amp; FG'!C43</f>
-        <v>1.1200000000000001</v>
+        <v>3.7240000000000006</v>
       </c>
       <c r="D35" s="73">
         <f>'Proj. RM &amp; DL &amp; FG'!D43</f>
-        <v>1.1200000000000001</v>
+        <v>3.9102000000000006</v>
       </c>
       <c r="E35" s="73">
         <f>'Proj. RM &amp; DL &amp; FG'!E43</f>
-        <v>1.1200000000000001</v>
+        <v>4.1057100000000011</v>
       </c>
       <c r="F35" s="73">
         <f>'Proj. RM &amp; DL &amp; FG'!F43</f>
-        <v>1.26308</v>
+        <v>4.3109955000000006</v>
       </c>
       <c r="G35" s="73">
         <f>'Proj. RM &amp; DL &amp; FG'!G43</f>
-        <v>1.26308</v>
+        <v>4.526545275000001</v>
       </c>
       <c r="H35" s="73">
         <f>'Proj. RM &amp; DL &amp; FG'!H43</f>
-        <v>1.26308</v>
+        <v>4.752872538750001</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" s="73">
         <f>'Proj. RM &amp; DL &amp; FG'!C52</f>
-        <v>2.6664E-2</v>
+        <v>0.30750000000000011</v>
       </c>
       <c r="D36" s="73">
         <f>'Proj. RM &amp; DL &amp; FG'!D52</f>
-        <v>2.6664E-2</v>
+        <v>0.32162500000000011</v>
       </c>
       <c r="E36" s="73">
         <f>'Proj. RM &amp; DL &amp; FG'!E52</f>
-        <v>2.6664E-2</v>
+        <v>0.33645625000000007</v>
       </c>
       <c r="F36" s="73">
         <f>'Proj. RM &amp; DL &amp; FG'!F52</f>
-        <v>2.6712000000000007E-2</v>
+        <v>0.3520290625000001</v>
       </c>
       <c r="G36" s="73">
         <f>'Proj. RM &amp; DL &amp; FG'!G52</f>
-        <v>2.6712000000000007E-2</v>
+        <v>0.36838051562500013</v>
       </c>
       <c r="H36" s="73">
         <f>'Proj. RM &amp; DL &amp; FG'!H52</f>
-        <v>2.6712000000000007E-2</v>
+        <v>0.3855495414062502</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" s="72">
         <f>C20</f>
@@ -9759,31 +9807,31 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="73">
         <f>SUM(C34:C37)</f>
-        <v>21.598809000000003</v>
+        <v>24.483645000000003</v>
       </c>
       <c r="D38" s="73">
         <f t="shared" ref="D38:H38" si="8">SUM(D34:D37)</f>
-        <v>21.81904625</v>
+        <v>24.904207249999999</v>
       </c>
       <c r="E38" s="73">
         <f t="shared" si="8"/>
-        <v>23.085800362500006</v>
+        <v>26.381302612500008</v>
       </c>
       <c r="F38" s="73">
         <f t="shared" si="8"/>
-        <v>24.524635180625005</v>
+        <v>27.897867743125005</v>
       </c>
       <c r="G38" s="73">
         <f t="shared" si="8"/>
-        <v>25.860127339656259</v>
+        <v>29.465261130281259</v>
       </c>
       <c r="H38" s="73">
         <f t="shared" si="8"/>
-        <v>27.237394106639069</v>
+        <v>31.086024186795321</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
@@ -9797,7 +9845,7 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40" s="72"/>
       <c r="D40" s="72"/>
@@ -9808,7 +9856,7 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" s="73"/>
       <c r="D41" s="73"/>
@@ -9828,7 +9876,7 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C43" s="72"/>
       <c r="D43" s="72"/>
@@ -9839,31 +9887,31 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C44" s="73">
         <f>C38+C40+C43</f>
-        <v>21.598809000000003</v>
+        <v>24.483645000000003</v>
       </c>
       <c r="D44" s="73">
         <f t="shared" ref="D44:H44" si="9">D38+D40+D43</f>
-        <v>21.81904625</v>
+        <v>24.904207249999999</v>
       </c>
       <c r="E44" s="73">
         <f t="shared" si="9"/>
-        <v>23.085800362500006</v>
+        <v>26.381302612500008</v>
       </c>
       <c r="F44" s="73">
         <f t="shared" si="9"/>
-        <v>24.524635180625005</v>
+        <v>27.897867743125005</v>
       </c>
       <c r="G44" s="73">
         <f t="shared" si="9"/>
-        <v>25.860127339656259</v>
+        <v>29.465261130281259</v>
       </c>
       <c r="H44" s="73">
         <f t="shared" si="9"/>
-        <v>27.237394106639069</v>
+        <v>31.086024186795321</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
@@ -9877,31 +9925,31 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" s="73">
         <f>C31-C44</f>
-        <v>3.9611909999999959</v>
+        <v>1.076354999999996</v>
       </c>
       <c r="D46" s="73">
         <f t="shared" ref="D46:H46" si="10">D31-D44</f>
-        <v>6.4389537500000031</v>
+        <v>3.3537927500000038</v>
       </c>
       <c r="E46" s="73">
         <f t="shared" si="10"/>
-        <v>8.005099637499999</v>
+        <v>4.709597387499997</v>
       </c>
       <c r="F46" s="73">
         <f t="shared" si="10"/>
-        <v>8.1208098193750047</v>
+        <v>4.7475772568750045</v>
       </c>
       <c r="G46" s="73">
         <f t="shared" si="10"/>
-        <v>8.4175899103437501</v>
+        <v>4.8124561197187496</v>
       </c>
       <c r="H46" s="73">
         <f t="shared" si="10"/>
-        <v>8.7542090058609396</v>
+        <v>4.9055789257046882</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
@@ -9914,7 +9962,7 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C48" s="73"/>
       <c r="D48" s="73"/>
@@ -9925,7 +9973,7 @@
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C49" s="73"/>
       <c r="D49" s="73"/>
@@ -9936,7 +9984,7 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C50" s="73"/>
       <c r="D50" s="73"/>
@@ -9947,7 +9995,7 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C51" s="72"/>
       <c r="D51" s="72"/>
@@ -9958,7 +10006,7 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="73"/>
       <c r="D52" s="73"/>
@@ -9977,36 +10025,36 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C54" s="73">
         <f>C46+C52</f>
-        <v>3.9611909999999959</v>
+        <v>1.076354999999996</v>
       </c>
       <c r="D54" s="73">
         <f t="shared" ref="D54:H54" si="11">D46+D52</f>
-        <v>6.4389537500000031</v>
+        <v>3.3537927500000038</v>
       </c>
       <c r="E54" s="73">
         <f t="shared" si="11"/>
-        <v>8.005099637499999</v>
+        <v>4.709597387499997</v>
       </c>
       <c r="F54" s="73">
         <f t="shared" si="11"/>
-        <v>8.1208098193750047</v>
+        <v>4.7475772568750045</v>
       </c>
       <c r="G54" s="73">
         <f t="shared" si="11"/>
-        <v>8.4175899103437501</v>
+        <v>4.8124561197187496</v>
       </c>
       <c r="H54" s="73">
         <f t="shared" si="11"/>
-        <v>8.7542090058609396</v>
+        <v>4.9055789257046882</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="42" x14ac:dyDescent="0.2">
       <c r="B57" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C57" s="8">
         <f>C26</f>
@@ -10035,7 +10083,7 @@
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C58" s="5">
         <f>'Proj. Sales &amp; Prod'!C12</f>
@@ -10064,7 +10112,7 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C59" s="40">
         <f>-C7</f>
@@ -10093,7 +10141,7 @@
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C60" s="20">
         <f>C58-C59</f>
@@ -10122,36 +10170,36 @@
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C61" s="20">
         <f>C34+C35+C36</f>
-        <v>11.573399000000002</v>
+        <v>14.458235000000002</v>
       </c>
       <c r="D61" s="20">
         <f t="shared" ref="D61:H61" si="15">D34+D35+D36</f>
-        <v>11.043615750000001</v>
+        <v>14.12877675</v>
       </c>
       <c r="E61" s="20">
         <f t="shared" si="15"/>
-        <v>11.547848337500007</v>
+        <v>14.843350587500007</v>
       </c>
       <c r="F61" s="20">
         <f t="shared" si="15"/>
-        <v>12.211035554375004</v>
+        <v>15.584268116875004</v>
       </c>
       <c r="G61" s="20">
         <f t="shared" si="15"/>
-        <v>12.757097732093758</v>
+        <v>16.362231522718758</v>
       </c>
       <c r="H61" s="20">
         <f t="shared" si="15"/>
-        <v>13.330463018698444</v>
+        <v>17.179093098854693</v>
       </c>
     </row>
     <row r="62" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B62" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C62" s="44">
         <f>C11</f>
@@ -10180,7 +10228,7 @@
     </row>
     <row r="63" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B63" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C63" s="44">
         <f>C12</f>
@@ -10209,65 +10257,65 @@
     </row>
     <row r="64" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B64" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C64" s="45">
         <f>C60-SUM(C61:C63)</f>
-        <v>7.8270109999999953</v>
+        <v>4.9421749999999953</v>
       </c>
       <c r="D64" s="45">
         <f t="shared" ref="D64:H64" si="18">D60-SUM(D61:D63)</f>
-        <v>9.0268147500000033</v>
+        <v>5.941653750000004</v>
       </c>
       <c r="E64" s="45">
         <f t="shared" si="18"/>
-        <v>9.2511036875000023</v>
+        <v>5.9556014375000039</v>
       </c>
       <c r="F64" s="45">
         <f t="shared" si="18"/>
-        <v>9.3778640718750097</v>
+        <v>6.0046315093750096</v>
       </c>
       <c r="G64" s="45">
         <f t="shared" si="18"/>
-        <v>9.6862468754687505</v>
+        <v>6.08111308484375</v>
       </c>
       <c r="H64" s="45">
         <f t="shared" si="18"/>
-        <v>10.035048819242192</v>
+        <v>6.1864187390859442</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C65" s="20">
         <f>C60-C61</f>
-        <v>16.827010999999995</v>
+        <v>13.942174999999995</v>
       </c>
       <c r="D65" s="20">
         <f t="shared" ref="D65:H65" si="19">D60-D61</f>
-        <v>18.776814750000003</v>
+        <v>15.691653750000004</v>
       </c>
       <c r="E65" s="20">
         <f t="shared" si="19"/>
-        <v>19.763603687500002</v>
+        <v>16.468101437500003</v>
       </c>
       <c r="F65" s="20">
         <f t="shared" si="19"/>
-        <v>20.665989071875011</v>
+        <v>17.29275650937501</v>
       </c>
       <c r="G65" s="20">
         <f t="shared" si="19"/>
-        <v>21.76377812546875</v>
+        <v>18.15864433484375</v>
       </c>
       <c r="H65" s="20">
         <f t="shared" si="19"/>
-        <v>22.916456631742193</v>
+        <v>19.067826551585945</v>
       </c>
     </row>
     <row r="66" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B66" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C66" s="46">
         <f>C15</f>
@@ -10296,7 +10344,7 @@
     </row>
     <row r="67" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B67" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C67" s="44">
         <f>C13+C14</f>
@@ -10325,36 +10373,36 @@
     </row>
     <row r="68" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B68" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C68" s="44">
         <f>C64-SUM(C66:C67)</f>
-        <v>6.7620109999999958</v>
+        <v>3.8771749999999954</v>
       </c>
       <c r="D68" s="44">
         <f t="shared" ref="D68:H68" si="22">D64-SUM(D66:D67)</f>
-        <v>7.9618147500000038</v>
+        <v>4.8766537500000045</v>
       </c>
       <c r="E68" s="44">
         <f t="shared" si="22"/>
-        <v>8.1861036875000028</v>
+        <v>4.8906014375000044</v>
       </c>
       <c r="F68" s="44">
         <f t="shared" si="22"/>
-        <v>8.3128640718750102</v>
+        <v>4.9396315093750101</v>
       </c>
       <c r="G68" s="44">
         <f t="shared" si="22"/>
-        <v>8.621246875468751</v>
+        <v>5.0161130848437505</v>
       </c>
       <c r="H68" s="44">
         <f t="shared" si="22"/>
-        <v>8.9700488192421926</v>
+        <v>5.1214187390859447</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C70" s="33">
         <f t="shared" ref="C70:H70" si="23">C16</f>
@@ -10383,36 +10431,36 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C71" s="20">
         <f t="shared" ref="C71:H71" si="24">C65-C70</f>
-        <v>6.7620109999999958</v>
+        <v>3.8771749999999958</v>
       </c>
       <c r="D71" s="20">
         <f t="shared" si="24"/>
-        <v>7.9618147500000038</v>
+        <v>4.8766537500000045</v>
       </c>
       <c r="E71" s="20">
         <f t="shared" si="24"/>
-        <v>8.1861036875000028</v>
+        <v>4.8906014375000044</v>
       </c>
       <c r="F71" s="20">
         <f t="shared" si="24"/>
-        <v>8.3128640718750102</v>
+        <v>4.9396315093750101</v>
       </c>
       <c r="G71" s="20">
         <f t="shared" si="24"/>
-        <v>8.621246875468751</v>
+        <v>5.0161130848437505</v>
       </c>
       <c r="H71" s="20">
         <f t="shared" si="24"/>
-        <v>8.9700488192421926</v>
+        <v>5.1214187390859447</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -10423,94 +10471,94 @@
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C74" s="20">
         <f>C71-C73</f>
-        <v>6.7620109999999958</v>
+        <v>3.8771749999999958</v>
       </c>
       <c r="D74" s="20">
         <f t="shared" ref="D74:H74" si="25">D71-D73</f>
-        <v>7.9618147500000038</v>
+        <v>4.8766537500000045</v>
       </c>
       <c r="E74" s="20">
         <f t="shared" si="25"/>
-        <v>8.1861036875000028</v>
+        <v>4.8906014375000044</v>
       </c>
       <c r="F74" s="20">
         <f t="shared" si="25"/>
-        <v>8.3128640718750102</v>
+        <v>4.9396315093750101</v>
       </c>
       <c r="G74" s="20">
         <f t="shared" si="25"/>
-        <v>8.621246875468751</v>
+        <v>5.0161130848437505</v>
       </c>
       <c r="H74" s="20">
         <f t="shared" si="25"/>
-        <v>8.9700488192421926</v>
+        <v>5.1214187390859447</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C76" s="26">
         <f>-C74*0.25</f>
-        <v>-1.6905027499999989</v>
+        <v>-0.96929374999999895</v>
       </c>
       <c r="D76" s="26">
         <f t="shared" ref="D76:H76" si="26">-D74*0.25</f>
-        <v>-1.990453687500001</v>
+        <v>-1.2191634375000011</v>
       </c>
       <c r="E76" s="26">
         <f t="shared" si="26"/>
-        <v>-2.0465259218750007</v>
+        <v>-1.2226503593750011</v>
       </c>
       <c r="F76" s="26">
         <f t="shared" si="26"/>
-        <v>-2.0782160179687525</v>
+        <v>-1.2349078773437525</v>
       </c>
       <c r="G76" s="26">
         <f t="shared" si="26"/>
-        <v>-2.1553117188671878</v>
+        <v>-1.2540282712109376</v>
       </c>
       <c r="H76" s="26">
         <f t="shared" si="26"/>
-        <v>-2.2425122048105481</v>
+        <v>-1.2803546847714862</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C77" s="20">
         <f>SUM(C74:C76)</f>
-        <v>5.0715082499999973</v>
+        <v>2.9078812499999969</v>
       </c>
       <c r="D77" s="20">
         <f t="shared" ref="D77:H77" si="27">SUM(D74:D76)</f>
-        <v>5.9713610625000033</v>
+        <v>3.6574903125000033</v>
       </c>
       <c r="E77" s="20">
         <f t="shared" si="27"/>
-        <v>6.1395777656250026</v>
+        <v>3.6679510781250033</v>
       </c>
       <c r="F77" s="20">
         <f t="shared" si="27"/>
-        <v>6.2346480539062572</v>
+        <v>3.7047236320312575</v>
       </c>
       <c r="G77" s="20">
         <f t="shared" si="27"/>
-        <v>6.4659351566015637</v>
+        <v>3.7620848136328129</v>
       </c>
       <c r="H77" s="20">
         <f t="shared" si="27"/>
-        <v>6.727536614431644</v>
+        <v>3.8410640543144585</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B81" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C81" s="77">
         <f t="shared" ref="C81:H81" si="28">C57</f>
@@ -10539,7 +10587,7 @@
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C82" s="73"/>
       <c r="D82" s="73"/>
@@ -10550,36 +10598,36 @@
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C83" s="73">
         <f t="shared" ref="C83:H83" si="29">C54</f>
-        <v>3.9611909999999959</v>
+        <v>1.076354999999996</v>
       </c>
       <c r="D83" s="73">
         <f t="shared" si="29"/>
-        <v>6.4389537500000031</v>
+        <v>3.3537927500000038</v>
       </c>
       <c r="E83" s="73">
         <f t="shared" si="29"/>
-        <v>8.005099637499999</v>
+        <v>4.709597387499997</v>
       </c>
       <c r="F83" s="73">
         <f t="shared" si="29"/>
-        <v>8.1208098193750047</v>
+        <v>4.7475772568750045</v>
       </c>
       <c r="G83" s="73">
         <f t="shared" si="29"/>
-        <v>8.4175899103437501</v>
+        <v>4.8124561197187496</v>
       </c>
       <c r="H83" s="73">
         <f t="shared" si="29"/>
-        <v>8.7542090058609396</v>
+        <v>4.9055789257046882</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C84" s="73">
         <f>'Proj. Sales &amp; Prod'!D19+'Proj. Sales &amp; Prod'!D20</f>
@@ -10608,7 +10656,7 @@
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C85" s="73">
         <f>'Proj. RM &amp; DL &amp; FG'!C20</f>
@@ -10637,60 +10685,60 @@
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C86" s="72">
         <f>'Proj. RM &amp; DL &amp; FG'!C79</f>
-        <v>7.9104856231707321E-2</v>
+        <v>7.5610153161018781E-2</v>
       </c>
       <c r="D86" s="72">
         <f>'Proj. RM &amp; DL &amp; FG'!D79</f>
-        <v>8.3658434980792701E-2</v>
+        <v>7.9390659386628565E-2</v>
       </c>
       <c r="E86" s="72">
         <f>'Proj. RM &amp; DL &amp; FG'!E79</f>
-        <v>8.8501022100926099E-2</v>
+        <v>8.3360190923518804E-2</v>
       </c>
       <c r="F86" s="72">
         <f>'Proj. RM &amp; DL &amp; FG'!F79</f>
-        <v>9.3184068224360206E-2</v>
+        <v>8.7528199037253576E-2</v>
       </c>
       <c r="G86" s="72">
         <f>'Proj. RM &amp; DL &amp; FG'!G79</f>
-        <v>9.8620474759654742E-2</v>
+        <v>9.190460755667508E-2</v>
       </c>
       <c r="H86" s="72">
         <f>'Proj. RM &amp; DL &amp; FG'!H79</f>
-        <v>0.10440836494193187</v>
+        <v>9.6499836502067629E-2</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C87" s="73">
         <f>SUM(C83:C86)</f>
-        <v>5.515845856231703</v>
+        <v>2.6275151531610148</v>
       </c>
       <c r="D87" s="73">
         <f t="shared" ref="D87:H87" si="30">SUM(D83:D86)</f>
-        <v>9.4913896849807973</v>
+        <v>6.4019609093866334</v>
       </c>
       <c r="E87" s="73">
         <f t="shared" si="30"/>
-        <v>11.210817034600927</v>
+        <v>7.9101739534235165</v>
       </c>
       <c r="F87" s="73">
         <f t="shared" si="30"/>
-        <v>11.487071081349365</v>
+        <v>8.1081826496622575</v>
       </c>
       <c r="G87" s="73">
         <f t="shared" si="30"/>
-        <v>11.952941438540906</v>
+        <v>8.3410917807129259</v>
       </c>
       <c r="H87" s="73">
         <f t="shared" si="30"/>
-        <v>12.467184976912248</v>
+        <v>8.6106463683161323</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.2">
@@ -10704,7 +10752,7 @@
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B89" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C89" s="73"/>
       <c r="D89" s="73"/>
@@ -10715,7 +10763,7 @@
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B90" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C90" s="72">
         <f>Assumptions!C61</f>
@@ -10744,7 +10792,7 @@
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B91" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C91" s="73">
         <f t="shared" ref="C91:H91" si="31">SUM(C89:C90)</f>
@@ -10781,31 +10829,31 @@
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C93" s="74">
         <f>C87+C91</f>
-        <v>6.515845856231703</v>
+        <v>3.6275151531610148</v>
       </c>
       <c r="D93" s="74">
         <f t="shared" ref="D93:H93" si="32">D87+D91</f>
-        <v>10.491389684980797</v>
+        <v>7.4019609093866334</v>
       </c>
       <c r="E93" s="74">
         <f t="shared" si="32"/>
-        <v>12.210817034600927</v>
+        <v>8.9101739534235165</v>
       </c>
       <c r="F93" s="74">
         <f t="shared" si="32"/>
-        <v>12.487071081349365</v>
+        <v>9.1081826496622575</v>
       </c>
       <c r="G93" s="74">
         <f t="shared" si="32"/>
-        <v>12.952941438540906</v>
+        <v>9.3410917807129259</v>
       </c>
       <c r="H93" s="74">
         <f t="shared" si="32"/>
-        <v>13.467184976912248</v>
+        <v>9.6106463683161323</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.2">
@@ -10819,7 +10867,7 @@
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B95" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C95" s="74"/>
       <c r="D95" s="74"/>
@@ -10830,7 +10878,7 @@
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B96" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C96" s="74">
         <f>'Proj. RM &amp; DL &amp; FG'!D35+'Proj. RM &amp; DL &amp; FG'!D36</f>
@@ -10859,7 +10907,7 @@
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B97" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C97" s="75"/>
       <c r="D97" s="75"/>
@@ -10870,7 +10918,7 @@
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B98" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C98" s="74">
         <f>SUM(C96:C97)</f>
@@ -10908,7 +10956,7 @@
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B100" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C100" s="75"/>
       <c r="D100" s="75"/>
@@ -10919,7 +10967,7 @@
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B101" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C101" s="74">
         <f>C100</f>
@@ -10957,89 +11005,89 @@
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B103" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C103" s="74">
         <f>C93-C98-C104</f>
-        <v>0.40166410623170545</v>
+        <v>-0.32303959683898187</v>
       </c>
       <c r="D103" s="74">
         <f>D93-D98-D104</f>
-        <v>2.487659947480795</v>
+        <v>1.7121019218866302</v>
       </c>
       <c r="E103" s="74">
         <f t="shared" ref="E103:H103" si="35">E93-E98-E104</f>
-        <v>4.041425660225924</v>
+        <v>3.2124092665485127</v>
       </c>
       <c r="F103" s="74">
         <f t="shared" si="35"/>
-        <v>4.1201802382556068</v>
+        <v>3.2712162284434991</v>
       </c>
       <c r="G103" s="74">
         <f t="shared" si="35"/>
-        <v>4.2481513532924655</v>
+        <v>3.3401520384332364</v>
       </c>
       <c r="H103" s="74">
         <f t="shared" si="35"/>
-        <v>4.3888506874013853</v>
+        <v>3.4187846389224537</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B104" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C104" s="75">
         <f>C77</f>
-        <v>5.0715082499999973</v>
+        <v>2.9078812499999969</v>
       </c>
       <c r="D104" s="75">
         <f t="shared" ref="D104:H104" si="36">D77</f>
-        <v>5.9713610625000033</v>
+        <v>3.6574903125000033</v>
       </c>
       <c r="E104" s="75">
         <f t="shared" si="36"/>
-        <v>6.1395777656250026</v>
+        <v>3.6679510781250033</v>
       </c>
       <c r="F104" s="75">
         <f t="shared" si="36"/>
-        <v>6.2346480539062572</v>
+        <v>3.7047236320312575</v>
       </c>
       <c r="G104" s="75">
         <f t="shared" si="36"/>
-        <v>6.4659351566015637</v>
+        <v>3.7620848136328129</v>
       </c>
       <c r="H104" s="75">
         <f t="shared" si="36"/>
-        <v>6.727536614431644</v>
+        <v>3.8410640543144585</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B105" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C105" s="74">
         <f>SUM(C103:C104)</f>
-        <v>5.4731723562317027</v>
+        <v>2.584841653161015</v>
       </c>
       <c r="D105" s="74">
         <f t="shared" ref="D105:H105" si="37">SUM(D103:D104)</f>
-        <v>8.4590210099807983</v>
+        <v>5.3695922343866336</v>
       </c>
       <c r="E105" s="74">
         <f t="shared" si="37"/>
-        <v>10.181003425850927</v>
+        <v>6.880360344673516</v>
       </c>
       <c r="F105" s="74">
         <f t="shared" si="37"/>
-        <v>10.354828292161864</v>
+        <v>6.9759398604747567</v>
       </c>
       <c r="G105" s="74">
         <f t="shared" si="37"/>
-        <v>10.714086509894029</v>
+        <v>7.1022368520660493</v>
       </c>
       <c r="H105" s="74">
         <f t="shared" si="37"/>
-        <v>11.116387301833029</v>
+        <v>7.2598486932369122</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.2">
@@ -11053,31 +11101,31 @@
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B107" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C107" s="74">
         <f>C105+C101+C98</f>
-        <v>6.515845856231703</v>
+        <v>3.6275151531610152</v>
       </c>
       <c r="D107" s="74">
         <f t="shared" ref="D107:H107" si="38">D105+D101+D98</f>
-        <v>10.491389684980799</v>
+        <v>7.4019609093866334</v>
       </c>
       <c r="E107" s="74">
         <f t="shared" si="38"/>
-        <v>12.210817034600927</v>
+        <v>8.9101739534235165</v>
       </c>
       <c r="F107" s="74">
         <f t="shared" si="38"/>
-        <v>12.487071081349365</v>
+        <v>9.1081826496622575</v>
       </c>
       <c r="G107" s="74">
         <f t="shared" si="38"/>
-        <v>12.952941438540906</v>
+        <v>9.3410917807129259</v>
       </c>
       <c r="H107" s="74">
         <f t="shared" si="38"/>
-        <v>13.46718497691225</v>
+        <v>9.6106463683161323</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.2">
@@ -11158,7 +11206,7 @@
     </row>
     <row r="3" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B3" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" s="39">
         <f>Assumptions!C8</f>
@@ -11187,7 +11235,7 @@
     </row>
     <row r="4" spans="2:8" s="50" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B4" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="51">
         <f>'Proj. Sales &amp; Prod'!C10-'Proj. SGA &amp; PL &amp; BS'!C7*'Proj. Sales &amp; Prod'!$C$35</f>
@@ -11216,36 +11264,36 @@
     </row>
     <row r="5" spans="2:8" s="50" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B5" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" s="51">
         <f>'Proj. RM &amp; DL &amp; FG'!C14+('Proj. RM &amp; DL &amp; FG'!C43+'Proj. RM &amp; DL &amp; FG'!C49)*'Proj. Sales &amp; Prod'!$C$35</f>
-        <v>10.867290731707318</v>
+        <v>12.978146341463416</v>
       </c>
       <c r="D5" s="51">
         <f>'Proj. RM &amp; DL &amp; FG'!D14+('Proj. RM &amp; DL &amp; FG'!D43+'Proj. RM &amp; DL &amp; FG'!D49)*'Proj. Sales &amp; Prod'!$C$35</f>
-        <v>10.359240731707317</v>
+        <v>12.616675609756099</v>
       </c>
       <c r="E5" s="51">
         <f>'Proj. RM &amp; DL &amp; FG'!E14+('Proj. RM &amp; DL &amp; FG'!E43+'Proj. RM &amp; DL &amp; FG'!E49)*'Proj. Sales &amp; Prod'!$C$35</f>
-        <v>10.842788231707322</v>
+        <v>13.254131341463422</v>
       </c>
       <c r="F5" s="51">
         <f>'Proj. RM &amp; DL &amp; FG'!F14+('Proj. RM &amp; DL &amp; FG'!F43+'Proj. RM &amp; DL &amp; FG'!F49)*'Proj. Sales &amp; Prod'!$C$35</f>
-        <v>11.446240911585368</v>
+        <v>13.9144598597561</v>
       </c>
       <c r="G5" s="51">
         <f>'Proj. RM &amp; DL &amp; FG'!G14+('Proj. RM &amp; DL &amp; FG'!G43+'Proj. RM &amp; DL &amp; FG'!G49)*'Proj. Sales &amp; Prod'!$C$35</f>
-        <v>11.969902030335373</v>
+        <v>14.607804803963422</v>
       </c>
       <c r="H5" s="51">
         <f>'Proj. RM &amp; DL &amp; FG'!H14+('Proj. RM &amp; DL &amp; FG'!H43+'Proj. RM &amp; DL &amp; FG'!H49)*'Proj. Sales &amp; Prod'!$C$35</f>
-        <v>12.519746205022871</v>
+        <v>15.335816995381103</v>
       </c>
     </row>
     <row r="6" spans="2:8" s="50" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B6" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="53">
         <f>('Proj. SGA &amp; PL &amp; BS'!C11+'Proj. SGA &amp; PL &amp; BS'!C12)*'Proj. Sales &amp; Prod'!$C$35</f>
@@ -11274,94 +11322,94 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="20">
         <f t="shared" ref="C7:H7" si="0">C4-SUM(C5:C6)</f>
-        <v>6.5470434146341461</v>
+        <v>4.436187804878049</v>
       </c>
       <c r="D7" s="20">
         <f t="shared" si="0"/>
-        <v>7.7062979268292722</v>
+        <v>5.4488630487804883</v>
       </c>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
-        <v>7.9248078475609738</v>
+        <v>5.513464737804874</v>
       </c>
       <c r="F7" s="20">
         <f t="shared" si="0"/>
-        <v>8.0768081423780522</v>
+        <v>5.6085891942073189</v>
       </c>
       <c r="G7" s="20">
         <f t="shared" si="0"/>
-        <v>8.3646653299847529</v>
+        <v>5.7267625563567037</v>
       </c>
       <c r="H7" s="20">
         <f t="shared" si="0"/>
-        <v>8.6852080598986312</v>
+        <v>5.8691372695403992</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" s="20">
         <f>C7/'Proj. Sales &amp; Prod'!C6</f>
-        <v>2.1823478048780487</v>
+        <v>1.4787292682926829</v>
       </c>
       <c r="D8" s="20">
         <f>D7/'Proj. Sales &amp; Prod'!D6</f>
-        <v>2.4464437862950068</v>
+        <v>1.7297977932636468</v>
       </c>
       <c r="E8" s="20">
         <f>E7/'Proj. Sales &amp; Prod'!E6</f>
-        <v>2.3960114429511634</v>
+        <v>1.6669583485426676</v>
       </c>
       <c r="F8" s="20">
         <f>F7/'Proj. Sales &amp; Prod'!F6</f>
-        <v>2.3256835165037759</v>
+        <v>1.6149700735578787</v>
       </c>
       <c r="G8" s="20">
         <f>G7/'Proj. Sales &amp; Prod'!G6</f>
-        <v>2.2938769559281029</v>
+        <v>1.5704739092200479</v>
       </c>
       <c r="H8" s="20">
         <f>H7/'Proj. Sales &amp; Prod'!H6</f>
-        <v>2.2683625920511119</v>
+        <v>1.5328742084267155</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" s="57">
         <f>C7/C4</f>
-        <v>0.27279688557082571</v>
+        <v>0.18484346907994886</v>
       </c>
       <c r="D9" s="57">
         <f t="shared" ref="D9:H9" si="1">D7/D4</f>
-        <v>0.30580929590307465</v>
+        <v>0.21622742700079337</v>
       </c>
       <c r="E9" s="57">
         <f t="shared" si="1"/>
-        <v>0.2995051741835727</v>
+        <v>0.20837239822281123</v>
       </c>
       <c r="F9" s="57">
         <f t="shared" si="1"/>
-        <v>0.29071407348889061</v>
+        <v>0.20187378261701755</v>
       </c>
       <c r="G9" s="57">
         <f t="shared" si="1"/>
-        <v>0.28673820371855935</v>
+        <v>0.19631169254866285</v>
       </c>
       <c r="H9" s="57">
         <f t="shared" si="1"/>
-        <v>0.28354886836724352</v>
+        <v>0.19161167119922942</v>
       </c>
     </row>
     <row r="10" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B10" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" s="53">
         <f>'Proj. Sales &amp; Prod'!C11-'Proj. SGA &amp; PL &amp; BS'!C7*'Proj. Sales &amp; Prod'!$C$36</f>
@@ -11390,36 +11438,36 @@
     </row>
     <row r="11" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="53">
         <f>'Proj. RM &amp; DL &amp; FG'!C25+('Proj. RM &amp; DL &amp; FG'!C43+'Proj. RM &amp; DL &amp; FG'!C49)*'Proj. Sales &amp; Prod'!$C$36</f>
-        <v>0.74610826829268306</v>
+        <v>1.5200886585365858</v>
       </c>
       <c r="D11" s="53">
         <f>'Proj. RM &amp; DL &amp; FG'!D25+('Proj. RM &amp; DL &amp; FG'!D43+'Proj. RM &amp; DL &amp; FG'!D49)*'Proj. Sales &amp; Prod'!$C$36</f>
-        <v>0.72437501829268314</v>
+        <v>1.5521011402439031</v>
       </c>
       <c r="E11" s="53">
         <f>'Proj. RM &amp; DL &amp; FG'!E25+('Proj. RM &amp; DL &amp; FG'!E43+'Proj. RM &amp; DL &amp; FG'!E49)*'Proj. Sales &amp; Prod'!$C$36</f>
-        <v>0.74506010579268322</v>
+        <v>1.6292192460365862</v>
       </c>
       <c r="F11" s="53">
         <f>'Proj. RM &amp; DL &amp; FG'!F25+('Proj. RM &amp; DL &amp; FG'!F43+'Proj. RM &amp; DL &amp; FG'!F49)*'Proj. Sales &amp; Prod'!$C$36</f>
-        <v>0.80479464278963442</v>
+        <v>1.7098082571189031</v>
       </c>
       <c r="G11" s="53">
         <f>'Proj. RM &amp; DL &amp; FG'!G25+('Proj. RM &amp; DL &amp; FG'!G43+'Proj. RM &amp; DL &amp; FG'!G49)*'Proj. Sales &amp; Prod'!$C$36</f>
-        <v>0.82719570175838453</v>
+        <v>1.7944267187553362</v>
       </c>
       <c r="H11" s="53">
         <f>'Proj. RM &amp; DL &amp; FG'!H25+('Proj. RM &amp; DL &amp; FG'!H43+'Proj. RM &amp; DL &amp; FG'!H49)*'Proj. Sales &amp; Prod'!$C$36</f>
-        <v>0.85071681367557206</v>
+        <v>1.8832761034735905</v>
       </c>
     </row>
     <row r="12" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B12" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" s="53">
         <f>('Proj. SGA &amp; PL &amp; BS'!C11+'Proj. SGA &amp; PL &amp; BS'!C12)*'Proj. Sales &amp; Prod'!$C$36</f>
@@ -11457,89 +11505,89 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="20">
         <f t="shared" ref="C14:H14" si="2">C10-SUM(C11:C12)</f>
-        <v>1.2391475853658527</v>
+        <v>0.46516719512194982</v>
       </c>
       <c r="D14" s="20">
         <f t="shared" si="2"/>
-        <v>1.279655823170732</v>
+        <v>0.45192970121951248</v>
       </c>
       <c r="E14" s="20">
         <f t="shared" si="2"/>
-        <v>1.2853917899390246</v>
+        <v>0.40123264969512107</v>
       </c>
       <c r="F14" s="20">
         <f t="shared" si="2"/>
-        <v>1.2601066769969513</v>
+        <v>0.3550930626676827</v>
       </c>
       <c r="G14" s="20">
         <f t="shared" si="2"/>
-        <v>1.2805848303589942</v>
+        <v>0.31335381336204282</v>
       </c>
       <c r="H14" s="20">
         <f t="shared" si="2"/>
-        <v>1.3087942084623094</v>
+        <v>0.27623491866429095</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="27">
         <f>C14/'Proj. Sales &amp; Prod'!C7</f>
-        <v>1.1264978048780478</v>
+        <v>0.42287926829268163</v>
       </c>
       <c r="D15" s="27">
         <f>D14/'Proj. Sales &amp; Prod'!D7</f>
-        <v>1.1079271196283391</v>
+        <v>0.39128112659698044</v>
       </c>
       <c r="E15" s="27">
         <f>E14/'Proj. Sales &amp; Prod'!E7</f>
-        <v>1.0598984044024113</v>
+        <v>0.33084530999391548</v>
       </c>
       <c r="F15" s="27">
         <f>F14/'Proj. Sales &amp; Prod'!F7</f>
-        <v>0.98957047795502229</v>
+        <v>0.27885703500912534</v>
       </c>
       <c r="G15" s="27">
         <f>G14/'Proj. Sales &amp; Prod'!G7</f>
-        <v>0.9577639173793514</v>
+        <v>0.23436087067129641</v>
       </c>
       <c r="H15" s="27">
         <f>H14/'Proj. Sales &amp; Prod'!H7</f>
-        <v>0.93224955350235839</v>
+        <v>0.19676116987796219</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="57">
         <f>C14/C10</f>
-        <v>0.28163149200681215</v>
+        <v>0.10572246013467378</v>
       </c>
       <c r="D16" s="57">
         <f t="shared" ref="D16:H16" si="3">D14/D10</f>
-        <v>0.27698870462470038</v>
+        <v>9.7822727217425534E-2</v>
       </c>
       <c r="E16" s="57">
         <f t="shared" si="3"/>
-        <v>0.2649812256312436</v>
+        <v>8.2713395333362194E-2</v>
       </c>
       <c r="F16" s="57">
         <f t="shared" si="3"/>
-        <v>0.24739880445886703</v>
+        <v>6.971600165232264E-2</v>
       </c>
       <c r="G16" s="57">
         <f t="shared" si="3"/>
-        <v>0.23944696551897582</v>
+        <v>5.8591682459885601E-2</v>
       </c>
       <c r="H16" s="57">
         <f t="shared" si="3"/>
-        <v>0.23306821508096662</v>
+        <v>4.9191522257546985E-2</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
@@ -11547,7 +11595,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="20">
         <f>'Proj. SGA &amp; PL &amp; BS'!C66+'Proj. SGA &amp; PL &amp; BS'!C67</f>
@@ -11576,7 +11624,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="20">
         <f>C18*'Proj. Sales &amp; Prod'!$C$35</f>
@@ -11605,7 +11653,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="20">
         <f>C19*'Proj. Sales &amp; Prod'!$C$36</f>
@@ -11640,7 +11688,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C23" s="60">
         <f>C3</f>
@@ -11669,89 +11717,89 @@
     </row>
     <row r="24" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B24" s="54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" s="55">
         <f>C19/C8</f>
-        <v>0.35707795564991207</v>
+        <v>0.52698510091888395</v>
       </c>
       <c r="D24" s="55">
         <f>D18/D8</f>
-        <v>0.43532575976858184</v>
+        <v>0.61567889850908031</v>
       </c>
       <c r="E24" s="55">
         <f>E18/E8</f>
-        <v>0.44448869521601331</v>
+        <v>0.6388881887367327</v>
       </c>
       <c r="F24" s="55">
         <f>F18/F8</f>
-        <v>0.45792989133836465</v>
+        <v>0.65945494435927177</v>
       </c>
       <c r="G24" s="55">
         <f>G18/G8</f>
-        <v>0.46427947987694085</v>
+        <v>0.67813925067301251</v>
       </c>
       <c r="H24" s="55">
         <f>H18/H8</f>
-        <v>0.46950165891996987</v>
+        <v>0.69477325285097979</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B25" s="54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C25" s="55">
         <f>C19/C9</f>
-        <v>2.8565879374037317</v>
+        <v>4.215828108840979</v>
       </c>
       <c r="D25" s="55">
         <f t="shared" ref="D25:H25" si="5">D19/D9</f>
-        <v>2.5482164967604963</v>
+        <v>3.603928990377653</v>
       </c>
       <c r="E25" s="55">
         <f t="shared" si="5"/>
-        <v>2.6018525216038428</v>
+        <v>3.7397865520060889</v>
       </c>
       <c r="F25" s="55">
         <f t="shared" si="5"/>
-        <v>2.6805317105252078</v>
+        <v>3.8601758117412723</v>
       </c>
       <c r="G25" s="55">
         <f t="shared" si="5"/>
-        <v>2.7176995690738091</v>
+        <v>3.9695459937505122</v>
       </c>
       <c r="H25" s="55">
         <f t="shared" si="5"/>
-        <v>2.7482680398979524</v>
+        <v>4.0669145454750399</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C26" s="55">
         <f>C4-C25</f>
-        <v>21.14311206259627</v>
+        <v>19.783871891159023</v>
       </c>
       <c r="D26" s="55">
         <f t="shared" ref="D26:H26" si="6">D4-D25</f>
-        <v>22.651468503239506</v>
+        <v>21.595756009622349</v>
       </c>
       <c r="E26" s="55">
         <f t="shared" si="6"/>
-        <v>23.857816728396163</v>
+        <v>22.719882697993917</v>
       </c>
       <c r="F26" s="55">
         <f t="shared" si="6"/>
-        <v>25.102121001974798</v>
+        <v>23.922476900758735</v>
       </c>
       <c r="G26" s="55">
         <f t="shared" si="6"/>
-        <v>26.454085779051198</v>
+        <v>25.202239354374495</v>
       </c>
       <c r="H26" s="55">
         <f t="shared" si="6"/>
-        <v>27.882106575633308</v>
+        <v>26.56346007005622</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
@@ -11765,89 +11813,89 @@
     </row>
     <row r="28" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B28" s="54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="55">
         <f>C20/C15</f>
-        <v>0.18559466344130673</v>
+        <v>0.49440111313049756</v>
       </c>
       <c r="D28" s="55">
         <f t="shared" ref="D28:H28" si="7">D18/D15</f>
-        <v>0.96125456370926332</v>
+        <v>2.7218281885007705</v>
       </c>
       <c r="E28" s="55">
         <f t="shared" si="7"/>
-        <v>1.0048132873645235</v>
+        <v>3.2190270432414052</v>
       </c>
       <c r="F28" s="55">
         <f t="shared" si="7"/>
-        <v>1.076224507223432</v>
+        <v>3.8191613131264512</v>
       </c>
       <c r="G28" s="55">
         <f t="shared" si="7"/>
-        <v>1.1119650476226643</v>
+        <v>4.5442739521723281</v>
       </c>
       <c r="H28" s="55">
         <f t="shared" si="7"/>
-        <v>1.1423979727304914</v>
+        <v>5.4126533231152685</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B29" s="54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C29" s="55">
         <f>C20/C16</f>
-        <v>0.74236009429888283</v>
+        <v>1.9775550124106773</v>
       </c>
       <c r="D29" s="55">
         <f t="shared" ref="D29:H29" si="8">D20/D16</f>
-        <v>0.75480327346557152</v>
+        <v>2.1372536516899454</v>
       </c>
       <c r="E29" s="55">
         <f t="shared" si="8"/>
-        <v>0.78900677006703646</v>
+        <v>2.5276677389567102</v>
       </c>
       <c r="F29" s="55">
         <f t="shared" si="8"/>
-        <v>0.84508080554800258</v>
+        <v>2.998909518740978</v>
       </c>
       <c r="G29" s="55">
         <f t="shared" si="8"/>
-        <v>0.87314525164505996</v>
+        <v>3.5682877191118698</v>
       </c>
       <c r="H29" s="55">
         <f t="shared" si="8"/>
-        <v>0.89704201360568048</v>
+        <v>4.2501628607688842</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C30" s="55">
         <f>C10-C29</f>
-        <v>3.657529905701117</v>
+        <v>2.4223349875893225</v>
       </c>
       <c r="D30" s="55">
         <f t="shared" ref="D30:H30" si="9">D10-D29</f>
-        <v>3.8650812265344299</v>
+        <v>2.4826308483100559</v>
       </c>
       <c r="E30" s="55">
         <f t="shared" si="9"/>
-        <v>4.0618719549329647</v>
+        <v>2.323210986043291</v>
       </c>
       <c r="F30" s="55">
         <f t="shared" si="9"/>
-        <v>4.248341855701999</v>
+        <v>2.0945131425090238</v>
       </c>
       <c r="G30" s="55">
         <f t="shared" si="9"/>
-        <v>4.4749485426674411</v>
+        <v>1.7798060752006317</v>
       </c>
       <c r="H30" s="55">
         <f t="shared" si="9"/>
-        <v>4.7184564704224456</v>
+        <v>1.3653356232592424</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
@@ -11861,7 +11909,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="55"/>
@@ -11875,7 +11923,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
@@ -11886,31 +11934,31 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C35" s="24">
         <f>'Proj. SGA &amp; PL &amp; BS'!C64/'Proj. SGA &amp; PL &amp; BS'!C71</f>
-        <v>1.1574975255142295</v>
+        <v>1.274684531907897</v>
       </c>
       <c r="D35" s="24">
         <f>'Proj. SGA &amp; PL &amp; BS'!D64/'Proj. SGA &amp; PL &amp; BS'!D71</f>
-        <v>1.1337634739617621</v>
+        <v>1.2183874547172842</v>
       </c>
       <c r="E35" s="24">
         <f>'Proj. SGA &amp; PL &amp; BS'!E64/'Proj. SGA &amp; PL &amp; BS'!E71</f>
-        <v>1.1300985231382092</v>
+        <v>1.21776462744108</v>
       </c>
       <c r="F35" s="24">
         <f>'Proj. SGA &amp; PL &amp; BS'!F64/'Proj. SGA &amp; PL &amp; BS'!F71</f>
-        <v>1.1281146895692935</v>
+        <v>1.2156031270710614</v>
       </c>
       <c r="G35" s="24">
         <f>'Proj. SGA &amp; PL &amp; BS'!G64/'Proj. SGA &amp; PL &amp; BS'!G71</f>
-        <v>1.1235320151926509</v>
+        <v>1.212315787540339</v>
       </c>
       <c r="H35" s="24">
         <f>'Proj. SGA &amp; PL &amp; BS'!H64/'Proj. SGA &amp; PL &amp; BS'!H71</f>
-        <v>1.1187284508101454</v>
+        <v>1.2079501900268512</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
@@ -11918,7 +11966,7 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -11957,15 +12005,15 @@
       <c r="G2" s="88"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="90" t="str">
+      <c r="C4" s="91" t="str">
         <f>Assumptions!C7</f>
         <v>6-MONTHS PLAN</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
     </row>
     <row r="5" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="str">
@@ -11999,7 +12047,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="78">
         <f>Realisation!C8</f>
@@ -12028,7 +12076,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="75">
         <f>Assumptions!C10</f>
@@ -12057,7 +12105,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="73">
         <f>SUM(C6:C7)</f>
@@ -12094,7 +12142,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="73">
         <f>C6*Assumptions!C12</f>
@@ -12123,7 +12171,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="72">
         <f>C7*Assumptions!C13</f>
@@ -12152,7 +12200,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="73">
         <f t="shared" ref="C12:H12" si="1">SUM(C10:C11)</f>
@@ -12195,18 +12243,18 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C15" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
+      <c r="C15" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="8">
         <f>C5</f>
@@ -12235,7 +12283,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="73"/>
       <c r="D17" s="73"/>
@@ -12246,7 +12294,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="73">
         <f>C12*Assumptions!$C$15</f>
@@ -12332,7 +12380,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="73">
         <f>SUM(C17:C20)</f>
@@ -12368,18 +12416,18 @@
       <c r="H23" s="1"/>
     </row>
     <row r="26" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="C26" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
+      <c r="C26" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
     </row>
     <row r="27" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B27" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="8">
         <f>C16</f>
@@ -12438,7 +12486,7 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="72">
         <f>C28*Assumptions!C22</f>
@@ -12467,7 +12515,7 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="73">
         <f>SUM(C28:C29)</f>
@@ -12504,7 +12552,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="72"/>
       <c r="D32" s="72">
@@ -12530,7 +12578,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="73">
         <f>C30+C32</f>
@@ -12559,7 +12607,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="28">
         <f>C6/C8</f>
@@ -12573,7 +12621,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="28">
         <f>C7/C8</f>
@@ -12626,18 +12674,18 @@
       <c r="G2" s="80"/>
     </row>
     <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C4" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
+      <c r="C4" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
     </row>
     <row r="5" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="8">
         <f>Assumptions!C8</f>
@@ -12666,7 +12714,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="74">
         <f>'Act. Sales &amp; Prod '!$C$35*'Act. Sales &amp; Prod '!C33</f>
@@ -12695,7 +12743,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="74">
         <f>C6*Assumptions!C23</f>
@@ -12733,7 +12781,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="74">
         <f>C7*Assumptions!C25</f>
@@ -12762,7 +12810,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="75"/>
       <c r="D10" s="75">
@@ -12788,7 +12836,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="74">
         <f>SUM(C7:C10)</f>
@@ -12826,7 +12874,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="75">
         <f>Realisation!C14</f>
@@ -12855,7 +12903,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C14" s="74">
         <f>C13*C11</f>
@@ -12902,7 +12950,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="74">
         <f>'Act. Sales &amp; Prod '!$C$36*'Act. Sales &amp; Prod '!C33</f>
@@ -12931,7 +12979,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="74">
         <f>Assumptions!C24*C17</f>
@@ -12969,7 +13017,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="74">
         <f>C18*Assumptions!C25</f>
@@ -12998,7 +13046,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="75"/>
       <c r="D21" s="75">
@@ -13024,7 +13072,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="74">
         <f>SUM(C18:C21)</f>
@@ -13062,7 +13110,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="75">
         <f>Realisation!C16</f>
@@ -13091,7 +13139,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="74">
         <f>C22*C24</f>
@@ -13138,7 +13186,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="74">
         <f>C25+C14</f>
@@ -13184,18 +13232,18 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C31" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
+      <c r="C31" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="8">
         <f>C5</f>
@@ -13224,7 +13272,7 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -13235,7 +13283,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="74">
         <f>C28*Assumptions!$C$29</f>
@@ -13322,7 +13370,7 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="74">
         <f>SUM(C33:C36)</f>
@@ -13370,18 +13418,18 @@
     </row>
     <row r="40" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
-      <c r="C40" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
+      <c r="C40" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
     </row>
     <row r="41" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B41" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="8">
         <f>C32</f>
@@ -13410,65 +13458,65 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="73">
         <f>Assumptions!C36*Assumptions!C37+Assumptions!C40*Assumptions!C41</f>
-        <v>2912</v>
+        <v>791000.00000000012</v>
       </c>
       <c r="D42" s="73">
         <f>Assumptions!D36*Assumptions!D37+Assumptions!D40*Assumptions!D41</f>
-        <v>2912</v>
+        <v>830550.00000000012</v>
       </c>
       <c r="E42" s="73">
         <f>Assumptions!E36*Assumptions!E37+Assumptions!E40*Assumptions!E41</f>
-        <v>2912</v>
+        <v>872077.50000000023</v>
       </c>
       <c r="F42" s="73">
         <f>Assumptions!F36*Assumptions!F37+Assumptions!F40*Assumptions!F41</f>
-        <v>2996</v>
+        <v>915681.37500000023</v>
       </c>
       <c r="G42" s="73">
         <f>Assumptions!G36*Assumptions!G37+Assumptions!G40*Assumptions!G41</f>
-        <v>2996</v>
+        <v>961465.44375000021</v>
       </c>
       <c r="H42" s="73">
         <f>Assumptions!H36*Assumptions!H37+Assumptions!H40*Assumptions!H41</f>
-        <v>2996</v>
+        <v>1009538.7159375004</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="73" cm="1">
         <f t="array" ref="C43">C42*(Assumptions!C38+Assumptions!C42)/unit</f>
-        <v>7.2800000000000004E-2</v>
+        <v>5.5370000000000008</v>
       </c>
       <c r="D43" s="73" cm="1">
         <f t="array" ref="D43">D42*(Assumptions!D38+Assumptions!D42)/unit</f>
-        <v>7.2800000000000004E-2</v>
+        <v>5.8138500000000013</v>
       </c>
       <c r="E43" s="73" cm="1">
         <f t="array" ref="E43">E42*(Assumptions!E38+Assumptions!E42)/unit</f>
-        <v>7.2800000000000004E-2</v>
+        <v>6.1045425000000018</v>
       </c>
       <c r="F43" s="73" cm="1">
         <f t="array" ref="F43">F42*(Assumptions!F38+Assumptions!F42)/unit</f>
-        <v>7.7896000000000007E-2</v>
+        <v>6.4097696250000018</v>
       </c>
       <c r="G43" s="73" cm="1">
         <f t="array" ref="G43">G42*(Assumptions!G38+Assumptions!G42)/unit</f>
-        <v>7.7896000000000007E-2</v>
+        <v>6.7302581062500009</v>
       </c>
       <c r="H43" s="73" cm="1">
         <f t="array" ref="H43">H42*(Assumptions!H38+Assumptions!H42)/unit</f>
-        <v>7.7896000000000007E-2</v>
+        <v>7.0667710115625022</v>
       </c>
     </row>
     <row r="46" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B46" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="8">
         <f>C41</f>
@@ -13497,36 +13545,36 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" s="73" cm="1">
         <f t="array" ref="C47">(Assumptions!C36+Assumptions!C40)*Assumptions!C45/unit</f>
-        <v>1.6639999999999999E-3</v>
+        <v>0.28250000000000008</v>
       </c>
       <c r="D47" s="73" cm="1">
         <f t="array" ref="D47">(Assumptions!D36+Assumptions!D40)*Assumptions!D45/unit</f>
-        <v>1.6639999999999999E-3</v>
+        <v>0.29662500000000008</v>
       </c>
       <c r="E47" s="73" cm="1">
         <f t="array" ref="E47">(Assumptions!E36+Assumptions!E40)*Assumptions!E45/unit</f>
-        <v>1.6639999999999999E-3</v>
+        <v>0.31145625000000005</v>
       </c>
       <c r="F47" s="73" cm="1">
         <f t="array" ref="F47">(Assumptions!F36+Assumptions!F40)*Assumptions!F45/unit</f>
-        <v>1.712E-3</v>
+        <v>0.32702906250000008</v>
       </c>
       <c r="G47" s="73" cm="1">
         <f t="array" ref="G47">(Assumptions!G36+Assumptions!G40)*Assumptions!G45/unit</f>
-        <v>1.712E-3</v>
+        <v>0.3433805156250001</v>
       </c>
       <c r="H47" s="73" cm="1">
         <f t="array" ref="H47">(Assumptions!H36+Assumptions!H40)*Assumptions!H45/unit</f>
-        <v>1.712E-3</v>
+        <v>0.36054954140625017</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" s="72">
         <f>Assumptions!C47+Assumptions!C48</f>
@@ -13555,31 +13603,31 @@
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="73">
         <f>SUM(C47:C48)</f>
-        <v>6.6664000000000001E-2</v>
+        <v>0.34750000000000009</v>
       </c>
       <c r="D49" s="73">
         <f t="shared" ref="D49:H49" si="11">SUM(D47:D48)</f>
-        <v>6.6664000000000001E-2</v>
+        <v>0.36162500000000009</v>
       </c>
       <c r="E49" s="73">
         <f t="shared" si="11"/>
-        <v>6.6664000000000001E-2</v>
+        <v>0.37645625000000005</v>
       </c>
       <c r="F49" s="73">
         <f t="shared" si="11"/>
-        <v>6.6712000000000007E-2</v>
+        <v>0.39202906250000008</v>
       </c>
       <c r="G49" s="73">
         <f t="shared" si="11"/>
-        <v>6.6712000000000007E-2</v>
+        <v>0.40838051562500011</v>
       </c>
       <c r="H49" s="73">
         <f t="shared" si="11"/>
-        <v>6.6712000000000007E-2</v>
+        <v>0.42554954140625018</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
@@ -13592,7 +13640,7 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" s="72">
         <f>-Assumptions!C47</f>
@@ -13621,7 +13669,7 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C52" s="73"/>
       <c r="D52" s="73"/>
@@ -13640,36 +13688,36 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54" s="73" cm="1">
         <f t="array" ref="C54">C49*unit/(Assumptions!C36+Assumptions!C40)</f>
-        <v>320.5</v>
+        <v>6.1504424778761067</v>
       </c>
       <c r="D54" s="73" cm="1">
         <f t="array" ref="D54">D49*unit/(Assumptions!D36+Assumptions!D40)</f>
-        <v>320.5</v>
+        <v>6.0956595027391494</v>
       </c>
       <c r="E54" s="73" cm="1">
         <f t="array" ref="E54">E49*unit/(Assumptions!E36+Assumptions!E40)</f>
-        <v>320.5</v>
+        <v>6.0434852407039505</v>
       </c>
       <c r="F54" s="73" cm="1">
         <f t="array" ref="F54">F49*unit/(Assumptions!F36+Assumptions!F40)</f>
-        <v>311.73831775700944</v>
+        <v>5.9937954673370957</v>
       </c>
       <c r="G54" s="73" cm="1">
         <f t="array" ref="G54">G49*unit/(Assumptions!G36+Assumptions!G40)</f>
-        <v>311.73831775700944</v>
+        <v>5.9464718736543771</v>
       </c>
       <c r="H54" s="73" cm="1">
         <f t="array" ref="H54">H49*unit/(Assumptions!H36+Assumptions!H40)</f>
-        <v>311.73831775700944</v>
+        <v>5.90140178443274</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B59" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59" s="8">
         <f>C46</f>
@@ -13698,12 +13746,12 @@
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" s="73">
         <f>C14/C11</f>
@@ -13732,89 +13780,89 @@
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62" s="73">
         <f>Assumptions!C37*Assumptions!C53</f>
-        <v>0.29166666666666663</v>
+        <v>0.23800000000000002</v>
       </c>
       <c r="D62" s="73">
         <f>Assumptions!D37*Assumptions!D53</f>
-        <v>0.30625000000000002</v>
+        <v>0.23800000000000002</v>
       </c>
       <c r="E62" s="73">
         <f>Assumptions!E37*Assumptions!E53</f>
-        <v>0.32156250000000003</v>
+        <v>0.23800000000000002</v>
       </c>
       <c r="F62" s="73">
         <f>Assumptions!F37*Assumptions!F53</f>
-        <v>0.32413500000000006</v>
+        <v>0.23800000000000002</v>
       </c>
       <c r="G62" s="73">
         <f>Assumptions!G37*Assumptions!G53</f>
-        <v>0.34034175000000005</v>
+        <v>0.23800000000000002</v>
       </c>
       <c r="H62" s="73">
         <f>Assumptions!H37*Assumptions!H53</f>
-        <v>0.35735883750000008</v>
+        <v>0.23800000000000002</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" s="72">
         <f>C54*Assumptions!C53*'Proj. Sales &amp; Prod'!$C$35</f>
-        <v>4.8856707317073171</v>
+        <v>7.6505503993093055E-2</v>
       </c>
       <c r="D63" s="72">
         <f>D54*Assumptions!D53*'Proj. Sales &amp; Prod'!$C$35</f>
-        <v>5.1299542682926838</v>
+        <v>7.5824057229194317E-2</v>
       </c>
       <c r="E63" s="72">
         <f>E54*Assumptions!E53*'Proj. Sales &amp; Prod'!$C$35</f>
-        <v>5.3864519817073182</v>
+        <v>7.5175060311195488E-2</v>
       </c>
       <c r="F63" s="72">
         <f>F54*Assumptions!F53*'Proj. Sales &amp; Prod'!$C$35</f>
-        <v>5.2811132208798748</v>
+        <v>7.4556968008339497E-2</v>
       </c>
       <c r="G63" s="72">
         <f>G54*Assumptions!G53*'Proj. Sales &amp; Prod'!$C$35</f>
-        <v>5.5451688819238694</v>
+        <v>7.3968308672286168E-2</v>
       </c>
       <c r="H63" s="72">
         <f>H54*Assumptions!H53*'Proj. Sales &amp; Prod'!$C$35</f>
-        <v>5.8224273260200636</v>
+        <v>7.3407680733187763E-2</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C64" s="73">
         <f>SUM(C61:C63)</f>
-        <v>7.1773373983739841</v>
+        <v>2.3145055039930931</v>
       </c>
       <c r="D64" s="73">
         <f t="shared" ref="D64:H64" si="14">SUM(D61:D63)</f>
-        <v>7.9362042682926841</v>
+        <v>2.8138240572291942</v>
       </c>
       <c r="E64" s="73">
         <f t="shared" si="14"/>
-        <v>8.208014481707318</v>
+        <v>2.8131750603111954</v>
       </c>
       <c r="F64" s="73">
         <f t="shared" si="14"/>
-        <v>8.1052482208798757</v>
+        <v>2.8125569680083395</v>
       </c>
       <c r="G64" s="73">
         <f t="shared" si="14"/>
-        <v>8.3855106319238697</v>
+        <v>2.8119683086722862</v>
       </c>
       <c r="H64" s="73">
         <f t="shared" si="14"/>
-        <v>8.6797861635200633</v>
+        <v>2.8114076807331876</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
@@ -13827,7 +13875,7 @@
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C66" s="72">
         <f>'Proj. Sales &amp; Prod'!C29*'Proj. Sales &amp; Prod'!$C$35</f>
@@ -13856,31 +13904,31 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C67" s="73">
         <f>C66*C64</f>
-        <v>0.21532012195121952</v>
+        <v>6.9435165119792794E-2</v>
       </c>
       <c r="D67" s="73">
         <f t="shared" ref="D67:H67" si="15">D66*D64</f>
-        <v>0.2499904344512196</v>
+        <v>8.8635457802719642E-2</v>
       </c>
       <c r="E67" s="73">
         <f t="shared" si="15"/>
-        <v>0.27148007898246962</v>
+        <v>9.3045765119792803E-2</v>
       </c>
       <c r="F67" s="73">
         <f t="shared" si="15"/>
-        <v>0.28148513915088214</v>
+        <v>9.7676587802719664E-2</v>
       </c>
       <c r="G67" s="73">
         <f t="shared" si="15"/>
-        <v>0.30577921747634751</v>
+        <v>0.10253895161979285</v>
       </c>
       <c r="H67" s="73">
         <f t="shared" si="15"/>
-        <v>0.33233553140829813</v>
+        <v>0.10764443362771965</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
@@ -13901,7 +13949,7 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C70" s="73"/>
       <c r="D70" s="73"/>
@@ -13912,7 +13960,7 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C71" s="73">
         <f>C25/C22</f>
@@ -13941,89 +13989,89 @@
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C72" s="73">
         <f>Assumptions!C41*Assumptions!C54</f>
-        <v>0.24062500000000003</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D72" s="73">
         <f>Assumptions!D41*Assumptions!D54</f>
-        <v>0.25265625000000003</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E72" s="73">
         <f>Assumptions!E41*Assumptions!E54</f>
-        <v>0.26528906250000006</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F72" s="73">
         <f>Assumptions!F41*Assumptions!F54</f>
-        <v>0.27855351562500008</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G72" s="73">
         <f>Assumptions!G41*Assumptions!G54</f>
-        <v>0.29248119140625012</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H72" s="73">
         <f>Assumptions!H41*Assumptions!H54</f>
-        <v>0.3071052509765626</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C73" s="72">
         <f>C54*Assumptions!C54*'Proj. Sales &amp; Prod'!$C$36</f>
-        <v>1.477915396341464</v>
+        <v>8.2505935678825835E-3</v>
       </c>
       <c r="D73" s="72">
         <f>D54*Assumptions!D54*'Proj. Sales &amp; Prod'!$C$36</f>
-        <v>1.5518111661585372</v>
+        <v>8.1771042109915447E-3</v>
       </c>
       <c r="E73" s="72">
         <f>E54*Assumptions!E54*'Proj. Sales &amp; Prod'!$C$36</f>
-        <v>1.629401724466464</v>
+        <v>8.107114347285789E-3</v>
       </c>
       <c r="F73" s="72">
         <f>F54*Assumptions!F54*'Proj. Sales &amp; Prod'!$C$36</f>
-        <v>1.6641007805376695</v>
+        <v>8.040457334232691E-3</v>
       </c>
       <c r="G73" s="72">
         <f>G54*Assumptions!G54*'Proj. Sales &amp; Prod'!$C$36</f>
-        <v>1.747305819564553</v>
+        <v>7.9769744646583131E-3</v>
       </c>
       <c r="H73" s="72">
         <f>H54*Assumptions!H54*'Proj. Sales &amp; Prod'!$C$36</f>
-        <v>1.8346711105427806</v>
+        <v>7.9165145888731893E-3</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C74" s="73">
         <f>SUM(C71:C73)</f>
-        <v>2.4185403963414638</v>
+        <v>0.77825059356788262</v>
       </c>
       <c r="D74" s="73">
         <f t="shared" ref="D74:H74" si="17">SUM(D71:D73)</f>
-        <v>2.6844674161585371</v>
+        <v>0.95817710421099145</v>
       </c>
       <c r="E74" s="73">
         <f t="shared" si="17"/>
-        <v>2.7746907869664641</v>
+        <v>0.95810711434728602</v>
       </c>
       <c r="F74" s="73">
         <f t="shared" si="17"/>
-        <v>2.8226542961626695</v>
+        <v>0.9580404573342326</v>
       </c>
       <c r="G74" s="73">
         <f t="shared" si="17"/>
-        <v>2.9197870109708033</v>
+        <v>0.95797697446465824</v>
       </c>
       <c r="H74" s="73">
         <f t="shared" si="17"/>
-        <v>3.0217763615193434</v>
+        <v>0.95791651458887317</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.2">
@@ -14036,7 +14084,7 @@
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C76" s="72">
         <f>'Proj. Sales &amp; Prod'!C29*'Proj. Sales &amp; Prod'!$C$36</f>
@@ -14065,31 +14113,31 @@
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C77" s="73">
         <f>C76*C74</f>
-        <v>2.6603944359756104E-2</v>
+        <v>8.5607565292467099E-3</v>
       </c>
       <c r="D77" s="73">
         <f t="shared" ref="D77:H77" si="18">D76*D74</f>
-        <v>3.1005598656631116E-2</v>
+        <v>1.1066945553636956E-2</v>
       </c>
       <c r="E77" s="73">
         <f t="shared" si="18"/>
-        <v>3.3650062518935805E-2</v>
+        <v>1.1619444029246716E-2</v>
       </c>
       <c r="F77" s="73">
         <f t="shared" si="18"/>
-        <v>3.5943326975548431E-2</v>
+        <v>1.2199567428636959E-2</v>
       </c>
       <c r="G77" s="73">
         <f t="shared" si="18"/>
-        <v>3.903921296554215E-2</v>
+        <v>1.2808696997996714E-2</v>
       </c>
       <c r="H77" s="73">
         <f t="shared" si="18"/>
-        <v>4.2423012018260216E-2</v>
+        <v>1.3448283045824459E-2</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.2">
@@ -14102,31 +14150,31 @@
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="73">
         <f>C67+C77</f>
-        <v>0.24192406631097563</v>
+        <v>7.7995921649039499E-2</v>
       </c>
       <c r="D79" s="73">
         <f t="shared" ref="D79:H79" si="19">D67+D77</f>
-        <v>0.28099603310785071</v>
+        <v>9.9702403356356592E-2</v>
       </c>
       <c r="E79" s="73">
         <f t="shared" si="19"/>
-        <v>0.30513014150140544</v>
+        <v>0.10466520914903951</v>
       </c>
       <c r="F79" s="73">
         <f t="shared" si="19"/>
-        <v>0.31742846612643055</v>
+        <v>0.10987615523135662</v>
       </c>
       <c r="G79" s="73">
         <f t="shared" si="19"/>
-        <v>0.34481843044188965</v>
+        <v>0.11534764861778957</v>
       </c>
       <c r="H79" s="73">
         <f t="shared" si="19"/>
-        <v>0.37475854342655834</v>
+        <v>0.12109271667354411</v>
       </c>
     </row>
   </sheetData>
@@ -14178,7 +14226,7 @@
     </row>
     <row r="4" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="8">
         <f>Assumptions!C8</f>
@@ -14207,7 +14255,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="73">
         <f>'Act. Sales &amp; Prod '!C8</f>
@@ -14236,7 +14284,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="76">
         <f>C6*Assumptions!C19</f>
@@ -14265,7 +14313,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="73">
         <f>C7</f>
@@ -14303,7 +14351,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="73"/>
       <c r="D10" s="73"/>
@@ -14314,7 +14362,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="73">
         <f>Realisation!C22</f>
@@ -14343,7 +14391,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="73">
         <f>Realisation!C24</f>
@@ -14372,7 +14420,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="73">
         <f>Assumptions!C61</f>
@@ -14401,7 +14449,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="73">
         <f>Assumptions!C48</f>
@@ -14430,7 +14478,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="76">
         <f>Assumptions!C47</f>
@@ -14459,7 +14507,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="73">
         <f>SUM(C11:C15)</f>
@@ -14497,7 +14545,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="73">
         <f>C16+C8</f>
@@ -14526,7 +14574,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="76">
         <f>-C15</f>
@@ -14555,7 +14603,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="73">
         <f>SUM(C18:C19)</f>
@@ -14584,7 +14632,7 @@
     </row>
     <row r="26" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B26" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="77">
         <f>C4</f>
@@ -14613,7 +14661,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" s="73"/>
       <c r="D27" s="73"/>
@@ -14633,7 +14681,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="73"/>
@@ -14644,7 +14692,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="73">
         <f>'Act. Sales &amp; Prod '!C21</f>
@@ -14673,7 +14721,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="73">
         <f>C30</f>
@@ -14711,7 +14759,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" s="73"/>
       <c r="D33" s="73"/>
@@ -14722,7 +14770,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" s="73">
         <f>'Act. RM &amp; DL &amp; FG'!C28</f>
@@ -14751,65 +14799,65 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" s="73">
         <f>'Act. RM &amp; DL &amp; FG'!C43</f>
-        <v>7.2800000000000004E-2</v>
+        <v>5.5370000000000008</v>
       </c>
       <c r="D35" s="73">
         <f>'Act. RM &amp; DL &amp; FG'!D43</f>
-        <v>7.2800000000000004E-2</v>
+        <v>5.8138500000000013</v>
       </c>
       <c r="E35" s="73">
         <f>'Act. RM &amp; DL &amp; FG'!E43</f>
-        <v>7.2800000000000004E-2</v>
+        <v>6.1045425000000018</v>
       </c>
       <c r="F35" s="73">
         <f>'Act. RM &amp; DL &amp; FG'!F43</f>
-        <v>7.7896000000000007E-2</v>
+        <v>6.4097696250000018</v>
       </c>
       <c r="G35" s="73">
         <f>'Act. RM &amp; DL &amp; FG'!G43</f>
-        <v>7.7896000000000007E-2</v>
+        <v>6.7302581062500009</v>
       </c>
       <c r="H35" s="73">
         <f>'Act. RM &amp; DL &amp; FG'!H43</f>
-        <v>7.7896000000000007E-2</v>
+        <v>7.0667710115625022</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" s="73">
         <f>'Act. RM &amp; DL &amp; FG'!C49</f>
-        <v>6.6664000000000001E-2</v>
+        <v>0.34750000000000009</v>
       </c>
       <c r="D36" s="73">
         <f>'Act. RM &amp; DL &amp; FG'!D49</f>
-        <v>6.6664000000000001E-2</v>
+        <v>0.36162500000000009</v>
       </c>
       <c r="E36" s="73">
         <f>'Act. RM &amp; DL &amp; FG'!E49</f>
-        <v>6.6664000000000001E-2</v>
+        <v>0.37645625000000005</v>
       </c>
       <c r="F36" s="73">
         <f>'Act. RM &amp; DL &amp; FG'!F49</f>
-        <v>6.6712000000000007E-2</v>
+        <v>0.39202906250000008</v>
       </c>
       <c r="G36" s="73">
         <f>'Act. RM &amp; DL &amp; FG'!G49</f>
-        <v>6.6712000000000007E-2</v>
+        <v>0.40838051562500011</v>
       </c>
       <c r="H36" s="73">
         <f>'Act. RM &amp; DL &amp; FG'!H49</f>
-        <v>6.6712000000000007E-2</v>
+        <v>0.42554954140625018</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" s="72">
         <f>C20</f>
@@ -14838,31 +14886,31 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="73">
         <f>SUM(C34:C37)</f>
-        <v>20.591609000000002</v>
+        <v>26.336645000000001</v>
       </c>
       <c r="D38" s="73">
         <f t="shared" ref="D38:H38" si="8">SUM(D34:D37)</f>
-        <v>22.838984199999999</v>
+        <v>28.874995200000001</v>
       </c>
       <c r="E38" s="73">
         <f t="shared" si="8"/>
-        <v>23.719282784146344</v>
+        <v>30.060817534146349</v>
       </c>
       <c r="F38" s="73">
         <f t="shared" si="8"/>
-        <v>24.421428921480494</v>
+        <v>31.078619608980496</v>
       </c>
       <c r="G38" s="73">
         <f t="shared" si="8"/>
-        <v>25.195345662259296</v>
+        <v>32.189376284134298</v>
       </c>
       <c r="H38" s="73">
         <f t="shared" si="8"/>
-        <v>25.987053351881606</v>
+        <v>33.334765904850357</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
@@ -14876,7 +14924,7 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40" s="72"/>
       <c r="D40" s="72"/>
@@ -14887,7 +14935,7 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" s="73"/>
       <c r="D41" s="73"/>
@@ -14907,7 +14955,7 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C43" s="72"/>
       <c r="D43" s="72"/>
@@ -14918,31 +14966,31 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C44" s="73">
         <f>C38+C40+C43</f>
-        <v>20.591609000000002</v>
+        <v>26.336645000000001</v>
       </c>
       <c r="D44" s="73">
         <f t="shared" ref="D44:H44" si="9">D38+D40+D43</f>
-        <v>22.838984199999999</v>
+        <v>28.874995200000001</v>
       </c>
       <c r="E44" s="73">
         <f t="shared" si="9"/>
-        <v>23.719282784146344</v>
+        <v>30.060817534146349</v>
       </c>
       <c r="F44" s="73">
         <f t="shared" si="9"/>
-        <v>24.421428921480494</v>
+        <v>31.078619608980496</v>
       </c>
       <c r="G44" s="73">
         <f t="shared" si="9"/>
-        <v>25.195345662259296</v>
+        <v>32.189376284134298</v>
       </c>
       <c r="H44" s="73">
         <f t="shared" si="9"/>
-        <v>25.987053351881606</v>
+        <v>33.334765904850357</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
@@ -14956,31 +15004,31 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" s="73">
         <f>C31-C44</f>
-        <v>4.9683909999999969</v>
+        <v>-0.77664500000000203</v>
       </c>
       <c r="D46" s="73">
         <f t="shared" ref="D46:H46" si="10">D31-D44</f>
-        <v>5.4190158000000039</v>
+        <v>-0.61699519999999808</v>
       </c>
       <c r="E46" s="73">
         <f t="shared" si="10"/>
-        <v>7.1448172158536636</v>
+        <v>0.80328246585365903</v>
       </c>
       <c r="F46" s="73">
         <f t="shared" si="10"/>
-        <v>7.5015320785195101</v>
+        <v>0.84434139101950834</v>
       </c>
       <c r="G46" s="73">
         <f t="shared" si="10"/>
-        <v>7.7990590677407106</v>
+        <v>0.80502844586570887</v>
       </c>
       <c r="H46" s="73">
         <f t="shared" si="10"/>
-        <v>8.1033961650184096</v>
+        <v>0.75568361204965839</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
@@ -14993,7 +15041,7 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C48" s="73"/>
       <c r="D48" s="73"/>
@@ -15004,7 +15052,7 @@
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C49" s="73"/>
       <c r="D49" s="73"/>
@@ -15015,7 +15063,7 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C50" s="73"/>
       <c r="D50" s="73"/>
@@ -15026,7 +15074,7 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C51" s="72"/>
       <c r="D51" s="72"/>
@@ -15037,7 +15085,7 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="73"/>
       <c r="D52" s="73"/>
@@ -15056,36 +15104,36 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C54" s="73">
         <f>C46+C52</f>
-        <v>4.9683909999999969</v>
+        <v>-0.77664500000000203</v>
       </c>
       <c r="D54" s="73">
         <f t="shared" ref="D54:H54" si="11">D46+D52</f>
-        <v>5.4190158000000039</v>
+        <v>-0.61699519999999808</v>
       </c>
       <c r="E54" s="73">
         <f t="shared" si="11"/>
-        <v>7.1448172158536636</v>
+        <v>0.80328246585365903</v>
       </c>
       <c r="F54" s="73">
         <f t="shared" si="11"/>
-        <v>7.5015320785195101</v>
+        <v>0.84434139101950834</v>
       </c>
       <c r="G54" s="73">
         <f t="shared" si="11"/>
-        <v>7.7990590677407106</v>
+        <v>0.80502844586570887</v>
       </c>
       <c r="H54" s="73">
         <f t="shared" si="11"/>
-        <v>8.1033961650184096</v>
+        <v>0.75568361204965839</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="42" x14ac:dyDescent="0.2">
       <c r="B57" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C57" s="8">
         <f>C26</f>
@@ -15114,7 +15162,7 @@
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C58" s="5">
         <f>'Act. Sales &amp; Prod '!C12</f>
@@ -15143,7 +15191,7 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C59" s="40">
         <f>-C7</f>
@@ -15172,7 +15220,7 @@
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C60" s="20">
         <f>C58-C59</f>
@@ -15201,36 +15249,36 @@
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C61" s="20">
         <f>C34+C35+C36</f>
-        <v>10.566199000000001</v>
+        <v>16.311235</v>
       </c>
       <c r="D61" s="20">
         <f t="shared" ref="D61:H61" si="15">D34+D35+D36</f>
-        <v>12.513553699999999</v>
+        <v>18.549564700000001</v>
       </c>
       <c r="E61" s="20">
         <f t="shared" si="15"/>
-        <v>13.043833909146345</v>
+        <v>19.385368659146348</v>
       </c>
       <c r="F61" s="20">
         <f t="shared" si="15"/>
-        <v>13.495964154730496</v>
+        <v>20.153154842230496</v>
       </c>
       <c r="G61" s="20">
         <f t="shared" si="15"/>
-        <v>13.969864405731796</v>
+        <v>20.963895027606796</v>
       </c>
       <c r="H61" s="20">
         <f t="shared" si="15"/>
-        <v>14.461554983544533</v>
+        <v>21.809267536513286</v>
       </c>
     </row>
     <row r="62" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B62" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C62" s="44">
         <f>C11</f>
@@ -15259,7 +15307,7 @@
     </row>
     <row r="63" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B63" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C63" s="44">
         <f>C12</f>
@@ -15288,65 +15336,65 @@
     </row>
     <row r="64" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B64" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C64" s="45">
         <f>C60-SUM(C61:C63)</f>
-        <v>8.8342109999999963</v>
+        <v>3.0891749999999973</v>
       </c>
       <c r="D64" s="45">
         <f t="shared" ref="D64:H64" si="17">D60-SUM(D61:D63)</f>
-        <v>8.0068768000000041</v>
+        <v>1.9708658000000021</v>
       </c>
       <c r="E64" s="45">
         <f t="shared" si="17"/>
-        <v>8.3656149658536592</v>
+        <v>2.0240802158536546</v>
       </c>
       <c r="F64" s="45">
         <f t="shared" si="17"/>
-        <v>8.6922906120195087</v>
+        <v>2.0350999245195105</v>
       </c>
       <c r="G64" s="45">
         <f t="shared" si="17"/>
-        <v>8.9829115507957127</v>
+        <v>1.9888809289207074</v>
       </c>
       <c r="H64" s="45">
         <f t="shared" si="17"/>
-        <v>9.2927714757925557</v>
+        <v>1.9450589228237973</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C65" s="20">
         <f>C60-C61</f>
-        <v>17.834210999999996</v>
+        <v>12.089174999999997</v>
       </c>
       <c r="D65" s="20">
         <f t="shared" ref="D65:H65" si="18">D60-D61</f>
-        <v>17.306876800000005</v>
+        <v>11.270865800000003</v>
       </c>
       <c r="E65" s="20">
         <f t="shared" si="18"/>
-        <v>18.015614965853658</v>
+        <v>11.674080215853657</v>
       </c>
       <c r="F65" s="20">
         <f t="shared" si="18"/>
-        <v>18.592290612019511</v>
+        <v>11.935099924519509</v>
       </c>
       <c r="G65" s="20">
         <f t="shared" si="18"/>
-        <v>19.182911550795708</v>
+        <v>12.18888092892071</v>
       </c>
       <c r="H65" s="20">
         <f t="shared" si="18"/>
-        <v>19.792771475792556</v>
+        <v>12.445058922823801</v>
       </c>
     </row>
     <row r="66" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B66" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C66" s="46">
         <f>C15</f>
@@ -15375,7 +15423,7 @@
     </row>
     <row r="67" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B67" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C67" s="44">
         <f>C13+C14</f>
@@ -15404,36 +15452,36 @@
     </row>
     <row r="68" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B68" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C68" s="44">
         <f>C64-SUM(C66:C67)</f>
-        <v>7.7692109999999968</v>
+        <v>2.0241749999999974</v>
       </c>
       <c r="D68" s="44">
         <f t="shared" ref="D68:H68" si="21">D64-SUM(D66:D67)</f>
-        <v>6.9418768000000046</v>
+        <v>0.90586580000000216</v>
       </c>
       <c r="E68" s="44">
         <f t="shared" si="21"/>
-        <v>7.3006149658536597</v>
+        <v>0.95908021585365466</v>
       </c>
       <c r="F68" s="44">
         <f t="shared" si="21"/>
-        <v>7.6272906120195092</v>
+        <v>0.97009992451951055</v>
       </c>
       <c r="G68" s="44">
         <f t="shared" si="21"/>
-        <v>7.9179115507957132</v>
+        <v>0.9238809289207075</v>
       </c>
       <c r="H68" s="44">
         <f t="shared" si="21"/>
-        <v>8.2277714757925562</v>
+        <v>0.88005892282379738</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C70" s="33">
         <f t="shared" ref="C70:H70" si="22">C16</f>
@@ -15462,36 +15510,36 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C71" s="20">
         <f t="shared" ref="C71:H71" si="23">C65-C70</f>
-        <v>7.7692109999999968</v>
+        <v>2.0241749999999978</v>
       </c>
       <c r="D71" s="20">
         <f t="shared" si="23"/>
-        <v>6.9418768000000046</v>
+        <v>0.90586580000000261</v>
       </c>
       <c r="E71" s="20">
         <f t="shared" si="23"/>
-        <v>7.3006149658536579</v>
+        <v>0.95908021585365688</v>
       </c>
       <c r="F71" s="20">
         <f t="shared" si="23"/>
-        <v>7.6272906120195127</v>
+        <v>0.97009992451951099</v>
       </c>
       <c r="G71" s="20">
         <f t="shared" si="23"/>
-        <v>7.9179115507957096</v>
+        <v>0.9238809289207115</v>
       </c>
       <c r="H71" s="20">
         <f t="shared" si="23"/>
-        <v>8.2277714757925562</v>
+        <v>0.88005892282380138</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -15502,94 +15550,94 @@
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C74" s="20">
         <f>C71-C73</f>
-        <v>7.7692109999999968</v>
+        <v>2.0241749999999978</v>
       </c>
       <c r="D74" s="20">
         <f t="shared" ref="D74:H74" si="24">D71-D73</f>
-        <v>6.9418768000000046</v>
+        <v>0.90586580000000261</v>
       </c>
       <c r="E74" s="20">
         <f t="shared" si="24"/>
-        <v>7.3006149658536579</v>
+        <v>0.95908021585365688</v>
       </c>
       <c r="F74" s="20">
         <f t="shared" si="24"/>
-        <v>7.6272906120195127</v>
+        <v>0.97009992451951099</v>
       </c>
       <c r="G74" s="20">
         <f t="shared" si="24"/>
-        <v>7.9179115507957096</v>
+        <v>0.9238809289207115</v>
       </c>
       <c r="H74" s="20">
         <f t="shared" si="24"/>
-        <v>8.2277714757925562</v>
+        <v>0.88005892282380138</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C76" s="26">
         <f>-C74*0.25</f>
-        <v>-1.9423027499999992</v>
+        <v>-0.50604374999999946</v>
       </c>
       <c r="D76" s="26">
         <f t="shared" ref="D76:H76" si="25">-D74*0.25</f>
-        <v>-1.7354692000000012</v>
+        <v>-0.22646645000000065</v>
       </c>
       <c r="E76" s="26">
         <f t="shared" si="25"/>
-        <v>-1.8251537414634145</v>
+        <v>-0.23977005396341422</v>
       </c>
       <c r="F76" s="26">
         <f t="shared" si="25"/>
-        <v>-1.9068226530048782</v>
+        <v>-0.24252498112987775</v>
       </c>
       <c r="G76" s="26">
         <f t="shared" si="25"/>
-        <v>-1.9794778876989274</v>
+        <v>-0.23097023223017787</v>
       </c>
       <c r="H76" s="26">
         <f t="shared" si="25"/>
-        <v>-2.056942868948139</v>
+        <v>-0.22001473070595035</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C77" s="20">
         <f>SUM(C74:C76)</f>
-        <v>5.8269082499999971</v>
+        <v>1.5181312499999984</v>
       </c>
       <c r="D77" s="20">
         <f t="shared" ref="D77:H77" si="26">SUM(D74:D76)</f>
-        <v>5.2064076000000039</v>
+        <v>0.67939935000000196</v>
       </c>
       <c r="E77" s="20">
         <f t="shared" si="26"/>
-        <v>5.4754612243902434</v>
+        <v>0.71931016189024266</v>
       </c>
       <c r="F77" s="20">
         <f t="shared" si="26"/>
-        <v>5.7204679590146341</v>
+        <v>0.72757494338963324</v>
       </c>
       <c r="G77" s="20">
         <f t="shared" si="26"/>
-        <v>5.9384336630967827</v>
+        <v>0.69291069669053362</v>
       </c>
       <c r="H77" s="20">
         <f t="shared" si="26"/>
-        <v>6.1708286068444167</v>
+        <v>0.66004419211785104</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B81" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C81" s="77">
         <f t="shared" ref="C81:H81" si="27">C57</f>
@@ -15618,7 +15666,7 @@
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C82" s="73"/>
       <c r="D82" s="73"/>
@@ -15629,36 +15677,36 @@
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C83" s="73">
         <f t="shared" ref="C83:H83" si="28">C54</f>
-        <v>4.9683909999999969</v>
+        <v>-0.77664500000000203</v>
       </c>
       <c r="D83" s="73">
         <f t="shared" si="28"/>
-        <v>5.4190158000000039</v>
+        <v>-0.61699519999999808</v>
       </c>
       <c r="E83" s="73">
         <f t="shared" si="28"/>
-        <v>7.1448172158536636</v>
+        <v>0.80328246585365903</v>
       </c>
       <c r="F83" s="73">
         <f t="shared" si="28"/>
-        <v>7.5015320785195101</v>
+        <v>0.84434139101950834</v>
       </c>
       <c r="G83" s="73">
         <f t="shared" si="28"/>
-        <v>7.7990590677407106</v>
+        <v>0.80502844586570887</v>
       </c>
       <c r="H83" s="73">
         <f t="shared" si="28"/>
-        <v>8.1033961650184096</v>
+        <v>0.75568361204965839</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C84" s="73">
         <f>SUM('Act. Sales &amp; Prod '!C19:C20)</f>
@@ -15687,7 +15735,7 @@
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C85" s="73">
         <f>'Act. RM &amp; DL &amp; FG'!C20</f>
@@ -15716,60 +15764,60 @@
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C86" s="72">
         <f>'Act. RM &amp; DL &amp; FG'!C79</f>
-        <v>0.24192406631097563</v>
+        <v>7.7995921649039499E-2</v>
       </c>
       <c r="D86" s="72">
         <f>'Act. RM &amp; DL &amp; FG'!D79</f>
-        <v>0.28099603310785071</v>
+        <v>9.9702403356356592E-2</v>
       </c>
       <c r="E86" s="72">
         <f>'Act. RM &amp; DL &amp; FG'!E79</f>
-        <v>0.30513014150140544</v>
+        <v>0.10466520914903951</v>
       </c>
       <c r="F86" s="72">
         <f>'Act. RM &amp; DL &amp; FG'!F79</f>
-        <v>0.31742846612643055</v>
+        <v>0.10987615523135662</v>
       </c>
       <c r="G86" s="72">
         <f>'Act. RM &amp; DL &amp; FG'!G79</f>
-        <v>0.34481843044188965</v>
+        <v>0.11534764861778957</v>
       </c>
       <c r="H86" s="72">
         <f>'Act. RM &amp; DL &amp; FG'!H79</f>
-        <v>0.37475854342655834</v>
+        <v>0.12109271667354411</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C87" s="73">
         <f>SUM(C83:C86)</f>
-        <v>5.2658650663109725</v>
+        <v>-0.64309907835096258</v>
       </c>
       <c r="D87" s="73">
         <f t="shared" ref="D87:H87" si="29">SUM(D83:D86)</f>
-        <v>7.1777893331078548</v>
+        <v>0.96048470335635849</v>
       </c>
       <c r="E87" s="73">
         <f t="shared" si="29"/>
-        <v>10.421186945769705</v>
+        <v>3.8791872634173332</v>
       </c>
       <c r="F87" s="73">
         <f t="shared" si="29"/>
-        <v>10.925278621993503</v>
+        <v>4.0605356235984269</v>
       </c>
       <c r="G87" s="73">
         <f t="shared" si="29"/>
-        <v>11.365797921085345</v>
+        <v>4.1422965173862432</v>
       </c>
       <c r="H87" s="73">
         <f t="shared" si="29"/>
-        <v>11.80703618743129</v>
+        <v>4.2056578077095237</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.2">
@@ -15783,7 +15831,7 @@
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B89" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C89" s="73"/>
       <c r="D89" s="73"/>
@@ -15794,7 +15842,7 @@
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B90" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C90" s="72">
         <f>Assumptions!C61</f>
@@ -15823,7 +15871,7 @@
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B91" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C91" s="73">
         <f t="shared" ref="C91:H91" si="30">SUM(C89:C90)</f>
@@ -15860,31 +15908,31 @@
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C93" s="74">
         <f>C87+C91</f>
-        <v>6.2658650663109725</v>
+        <v>0.35690092164903742</v>
       </c>
       <c r="D93" s="74">
         <f t="shared" ref="D93:H93" si="31">D87+D91</f>
-        <v>8.1777893331078548</v>
+        <v>1.9604847033563586</v>
       </c>
       <c r="E93" s="74">
         <f t="shared" si="31"/>
-        <v>11.421186945769705</v>
+        <v>4.8791872634173332</v>
       </c>
       <c r="F93" s="74">
         <f t="shared" si="31"/>
-        <v>11.925278621993503</v>
+        <v>5.0605356235984269</v>
       </c>
       <c r="G93" s="74">
         <f t="shared" si="31"/>
-        <v>12.365797921085345</v>
+        <v>5.1422965173862432</v>
       </c>
       <c r="H93" s="74">
         <f t="shared" si="31"/>
-        <v>12.80703618743129</v>
+        <v>5.2056578077095237</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.2">
@@ -15898,7 +15946,7 @@
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B95" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C95" s="74"/>
       <c r="D95" s="74"/>
@@ -15909,7 +15957,7 @@
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B96" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C96" s="74">
         <f>SUM('Act. RM &amp; DL &amp; FG'!D35:D36)</f>
@@ -15938,7 +15986,7 @@
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B97" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C97" s="75"/>
       <c r="D97" s="75"/>
@@ -15949,7 +15997,7 @@
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B98" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C98" s="74">
         <f>SUM(C96:C97)</f>
@@ -15987,7 +16035,7 @@
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B100" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C100" s="75"/>
       <c r="D100" s="75"/>
@@ -15998,7 +16046,7 @@
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B101" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C101" s="74">
         <f>C100</f>
@@ -16036,89 +16084,89 @@
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B103" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C103" s="74">
         <f>C93-C98-C104</f>
-        <v>-0.60371668368902487</v>
+        <v>-2.2039038283509611</v>
       </c>
       <c r="D103" s="74">
         <f>D93-D98-D104</f>
-        <v>0.69129926310785095</v>
+        <v>-0.99899711664364332</v>
       </c>
       <c r="E103" s="74">
         <f t="shared" ref="E103:H103" si="34">E93-E98-E104</f>
-        <v>3.4178797604648272</v>
+        <v>1.6320311406124564</v>
       </c>
       <c r="F103" s="74">
         <f t="shared" si="34"/>
-        <v>3.5792380565911834</v>
+        <v>1.7073880738211096</v>
       </c>
       <c r="G103" s="74">
         <f t="shared" si="34"/>
-        <v>3.7097030019423336</v>
+        <v>1.7317245646494803</v>
       </c>
       <c r="H103" s="74">
         <f t="shared" si="34"/>
-        <v>3.8219872416592402</v>
+        <v>1.7313932766640399</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B104" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C104" s="75">
         <f>C77</f>
-        <v>5.8269082499999971</v>
+        <v>1.5181312499999984</v>
       </c>
       <c r="D104" s="75">
         <f t="shared" ref="D104:H104" si="35">D77</f>
-        <v>5.2064076000000039</v>
+        <v>0.67939935000000196</v>
       </c>
       <c r="E104" s="75">
         <f t="shared" si="35"/>
-        <v>5.4754612243902434</v>
+        <v>0.71931016189024266</v>
       </c>
       <c r="F104" s="75">
         <f t="shared" si="35"/>
-        <v>5.7204679590146341</v>
+        <v>0.72757494338963324</v>
       </c>
       <c r="G104" s="75">
         <f t="shared" si="35"/>
-        <v>5.9384336630967827</v>
+        <v>0.69291069669053362</v>
       </c>
       <c r="H104" s="75">
         <f t="shared" si="35"/>
-        <v>6.1708286068444167</v>
+        <v>0.66004419211785104</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B105" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C105" s="74">
         <f>SUM(C103:C104)</f>
-        <v>5.2231915663109723</v>
+        <v>-0.68577257835096272</v>
       </c>
       <c r="D105" s="74">
         <f t="shared" ref="D105:H105" si="36">SUM(D103:D104)</f>
-        <v>5.8977068631078549</v>
+        <v>-0.31959776664364137</v>
       </c>
       <c r="E105" s="74">
         <f t="shared" si="36"/>
-        <v>8.8933409848550706</v>
+        <v>2.351341302502699</v>
       </c>
       <c r="F105" s="74">
         <f t="shared" si="36"/>
-        <v>9.2997060156058176</v>
+        <v>2.4349630172107428</v>
       </c>
       <c r="G105" s="74">
         <f t="shared" si="36"/>
-        <v>9.6481366650391163</v>
+        <v>2.4246352613400139</v>
       </c>
       <c r="H105" s="74">
         <f t="shared" si="36"/>
-        <v>9.9928158485036569</v>
+        <v>2.3914374687818909</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.2">
@@ -16132,31 +16180,31 @@
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B107" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C107" s="74">
         <f>C105+C101+C98</f>
-        <v>6.2658650663109725</v>
+        <v>0.35690092164903731</v>
       </c>
       <c r="D107" s="74">
         <f t="shared" ref="D107:H107" si="37">D105+D101+D98</f>
-        <v>8.1777893331078548</v>
+        <v>1.9604847033563586</v>
       </c>
       <c r="E107" s="74">
         <f t="shared" si="37"/>
-        <v>11.421186945769705</v>
+        <v>4.8791872634173332</v>
       </c>
       <c r="F107" s="74">
         <f t="shared" si="37"/>
-        <v>11.925278621993503</v>
+        <v>5.0605356235984269</v>
       </c>
       <c r="G107" s="74">
         <f t="shared" si="37"/>
-        <v>12.365797921085345</v>
+        <v>5.1422965173862432</v>
       </c>
       <c r="H107" s="74">
         <f t="shared" si="37"/>
-        <v>12.80703618743129</v>
+        <v>5.2056578077095237</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.2">
